--- a/Code/Results/Cases/Case_2_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_49/res_line/pl_mw.xlsx
@@ -415,22 +415,22 @@
         <v>2.6102455563543</v>
       </c>
       <c r="C2">
-        <v>0.7256382265704246</v>
+        <v>0.7256382265702257</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04577942547244618</v>
+        <v>0.04577942547246217</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.8852073303952324</v>
+        <v>0.8852073303952608</v>
       </c>
       <c r="H2">
-        <v>0.5572350465204323</v>
+        <v>0.5572350465204039</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0.1588015409292716</v>
       </c>
       <c r="L2">
-        <v>0.6917776088591623</v>
+        <v>0.6917776088591481</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.256870312652325</v>
+        <v>2.256870312652381</v>
       </c>
       <c r="C3">
-        <v>0.6271085059408392</v>
+        <v>0.6271085059412087</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04247828590304259</v>
+        <v>0.04247828590302127</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
@@ -468,7 +468,7 @@
         <v>0.8076163192677654</v>
       </c>
       <c r="H3">
-        <v>0.5293912432278347</v>
+        <v>0.5293912432278418</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1381060731620494</v>
+        <v>0.1381060731620529</v>
       </c>
       <c r="L3">
-        <v>0.5976864772906652</v>
+        <v>0.5976864772906723</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.041986118567195</v>
+        <v>2.041986118567308</v>
       </c>
       <c r="C4">
-        <v>0.5673316009150255</v>
+        <v>0.5673316009153666</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0405551114070235</v>
+        <v>0.04055511140701995</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.7630668835347052</v>
+        <v>0.7630668835346839</v>
       </c>
       <c r="H4">
-        <v>0.5144835135661197</v>
+        <v>0.5144835135661125</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1256762944539922</v>
+        <v>0.1256762944539993</v>
       </c>
       <c r="L4">
-        <v>0.5407045391562733</v>
+        <v>0.5407045391562662</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.95485315248041</v>
+        <v>1.954853152480467</v>
       </c>
       <c r="C5">
-        <v>0.5431209780494157</v>
+        <v>0.5431209780494441</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03979534190212775</v>
+        <v>0.03979534190212597</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
@@ -544,7 +544,7 @@
         <v>0.7456170220900873</v>
       </c>
       <c r="H5">
-        <v>0.5089129082677033</v>
+        <v>0.5089129082677459</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0.1206722798324655</v>
       </c>
       <c r="L5">
-        <v>0.5176534898574161</v>
+        <v>0.5176534898574019</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.940408484548811</v>
+        <v>1.940408484548868</v>
       </c>
       <c r="C6">
         <v>0.5391089280791448</v>
@@ -576,10 +576,10 @@
         <v>0.0396705690227197</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.7427600055807275</v>
+        <v>0.7427600055807417</v>
       </c>
       <c r="H6">
         <v>0.5080171064886656</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1198448288609768</v>
+        <v>0.1198448288609661</v>
       </c>
       <c r="L6">
-        <v>0.5138353138480198</v>
+        <v>0.513835313848034</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.040809370399359</v>
+        <v>2.040809370399302</v>
       </c>
       <c r="C7">
-        <v>0.5670045255248226</v>
+        <v>0.5670045255245952</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04054477067534457</v>
+        <v>0.04054477067533924</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.7628287887778313</v>
+        <v>0.7628287887777887</v>
       </c>
       <c r="H7">
-        <v>0.5144064020591657</v>
+        <v>0.5144064020591799</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1256085714283053</v>
+        <v>0.125608571428323</v>
       </c>
       <c r="L7">
-        <v>0.5403930149489611</v>
+        <v>0.5403930149489398</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,10 +640,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.487910461362503</v>
+        <v>2.487910461362389</v>
       </c>
       <c r="C8">
-        <v>0.6914952241624235</v>
+        <v>0.6914952241623098</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0.8577663517825798</v>
       </c>
       <c r="H8">
-        <v>0.547151465309291</v>
+        <v>0.5471514653092981</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1516028312397104</v>
+        <v>0.1516028312397033</v>
       </c>
       <c r="L8">
-        <v>0.659152552979549</v>
+        <v>0.6591525529795419</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.385861427032012</v>
+        <v>3.385861427032069</v>
       </c>
       <c r="C9">
-        <v>0.9429684099210647</v>
+        <v>0.9429684099209226</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05353621847265799</v>
+        <v>0.05353621847264733</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>1.895061171842826</v>
       </c>
       <c r="G9">
-        <v>1.072114771844355</v>
+        <v>1.072114771844369</v>
       </c>
       <c r="H9">
-        <v>0.6310138966607326</v>
+        <v>0.6310138966607468</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.205203997103979</v>
+        <v>0.2052039971039861</v>
       </c>
       <c r="L9">
         <v>0.8997780509823912</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.065752937554976</v>
+        <v>4.065752937554919</v>
       </c>
       <c r="C10">
-        <v>1.134773660831598</v>
+        <v>1.134773660831655</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06082032241692659</v>
+        <v>0.06082032241696211</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>1.252465190350975</v>
+        <v>1.252465190350961</v>
       </c>
       <c r="H10">
         <v>0.7081680256024896</v>
@@ -746,7 +746,7 @@
         <v>0.246852418533912</v>
       </c>
       <c r="L10">
-        <v>1.083585174619117</v>
+        <v>1.083585174619103</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.381307759780952</v>
+        <v>4.381307759781123</v>
       </c>
       <c r="C11">
-        <v>1.224229831397963</v>
+        <v>1.22422983139802</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06433527872334821</v>
+        <v>0.06433527872335532</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.340947951071115</v>
+        <v>1.340947951071072</v>
       </c>
       <c r="H11">
-        <v>0.7475611213483617</v>
+        <v>0.7475611213483546</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0.2664635704701865</v>
       </c>
       <c r="L11">
-        <v>1.169322466038466</v>
+        <v>1.169322466038452</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.501881785855517</v>
+        <v>4.501881785855574</v>
       </c>
       <c r="C12">
         <v>1.258486111215689</v>
@@ -801,16 +801,16 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06569930224209486</v>
+        <v>0.06569930224205933</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>1.375522604044733</v>
+        <v>1.375522604044718</v>
       </c>
       <c r="H12">
-        <v>0.7631849094862702</v>
+        <v>0.7631849094862631</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2740019698135683</v>
+        <v>0.2740019698135825</v>
       </c>
       <c r="L12">
-        <v>1.202151299104436</v>
+        <v>1.202151299104443</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.475862858962614</v>
+        <v>4.475862858962557</v>
       </c>
       <c r="C13">
         <v>1.251090333120999</v>
@@ -839,16 +839,16 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06540399864152135</v>
+        <v>0.06540399864149649</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236084</v>
       </c>
       <c r="G13">
         <v>1.368026356901893</v>
       </c>
       <c r="H13">
-        <v>0.7597870820694439</v>
+        <v>0.7597870820694368</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2723731701933829</v>
+        <v>0.27237317019339</v>
       </c>
       <c r="L13">
-        <v>1.195063937065427</v>
+        <v>1.195063937065434</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.391204696789373</v>
+        <v>4.391204696789316</v>
       </c>
       <c r="C14">
         <v>1.227040075883053</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0644468117674748</v>
+        <v>0.06444681176747835</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
@@ -886,7 +886,7 @@
         <v>1.343770138452527</v>
       </c>
       <c r="H14">
-        <v>0.7488317891280829</v>
+        <v>0.74883178912809</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2670814107848187</v>
+        <v>0.2670814107847974</v>
       </c>
       <c r="L14">
-        <v>1.172015706822613</v>
+        <v>1.172015706822606</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.339495528221619</v>
+        <v>4.339495528221676</v>
       </c>
       <c r="C15">
-        <v>1.212360302831144</v>
+        <v>1.212360302831314</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.06386493117503633</v>
+        <v>0.06386493117503989</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>1.329056153845073</v>
+        <v>1.329056153845045</v>
       </c>
       <c r="H15">
-        <v>0.7422162010404065</v>
+        <v>0.7422162010404136</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2638551771519531</v>
+        <v>0.2638551771519246</v>
       </c>
       <c r="L15">
-        <v>1.157946955505892</v>
+        <v>1.157946955505878</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.045271582395458</v>
+        <v>4.045271582395401</v>
       </c>
       <c r="C16">
-        <v>1.128977123089442</v>
+        <v>1.128977123089356</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0605949969441113</v>
+        <v>0.06059499694413262</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>1.246823943670179</v>
+        <v>1.246823943670194</v>
       </c>
       <c r="H16">
-        <v>0.7056873523687841</v>
+        <v>0.7056873523687983</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2455855236834523</v>
+        <v>0.2455855236834381</v>
       </c>
       <c r="L16">
-        <v>1.078029434908707</v>
+        <v>1.0780294349087</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.866500260428666</v>
+        <v>3.866500260428722</v>
       </c>
       <c r="C17">
-        <v>1.078431574250004</v>
+        <v>1.07843157424989</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05864328737500912</v>
+        <v>0.05864328737499136</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>1.198121923552478</v>
+        <v>1.198121923552463</v>
       </c>
       <c r="H17">
-        <v>0.6844377891893885</v>
+        <v>0.6844377891893814</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2345590634273194</v>
+        <v>0.2345590634273407</v>
       </c>
       <c r="L17">
-        <v>1.029584343117634</v>
+        <v>1.029584343117648</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.764253762580097</v>
+        <v>3.764253762579983</v>
       </c>
       <c r="C18">
-        <v>1.049562129251342</v>
+        <v>1.049562129251456</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05753940172694882</v>
+        <v>0.05753940172694527</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.170706474474883</v>
+        <v>1.170706474474869</v>
       </c>
       <c r="H18">
         <v>0.6726139332434968</v>
@@ -1050,7 +1050,7 @@
         <v>0.2282784324452294</v>
       </c>
       <c r="L18">
-        <v>1.001915978917786</v>
+        <v>1.001915978917793</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.729729063379466</v>
+        <v>3.729729063379409</v>
       </c>
       <c r="C19">
-        <v>1.039820479335361</v>
+        <v>1.039820479335475</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05716873969970138</v>
+        <v>0.05716873969975111</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
         <v>1.161522527812565</v>
       </c>
       <c r="H19">
-        <v>0.6686764744856717</v>
+        <v>0.6686764744856646</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2261620142851584</v>
+        <v>0.2261620142851513</v>
       </c>
       <c r="L19">
-        <v>0.9925799941935693</v>
+        <v>0.9925799941935836</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.885469727641578</v>
+        <v>3.885469727641521</v>
       </c>
       <c r="C20">
-        <v>1.083790784283366</v>
+        <v>1.083790784283735</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05884908867325578</v>
+        <v>0.05884908867326999</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.20324361547965</v>
+        <v>1.203243615479636</v>
       </c>
       <c r="H20">
-        <v>0.6866580096884505</v>
+        <v>0.6866580096884434</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2357263719043701</v>
+        <v>0.2357263719043914</v>
       </c>
       <c r="L20">
-        <v>1.03472073600711</v>
+        <v>1.034720736007117</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.416039987621218</v>
+        <v>4.416039987621446</v>
       </c>
       <c r="C21">
         <v>1.234093316460985</v>
@@ -1143,16 +1143,16 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.06472703086947362</v>
+        <v>0.06472703086952691</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.35086455998885</v>
+        <v>1.350864559988807</v>
       </c>
       <c r="H21">
-        <v>0.7520296827279935</v>
+        <v>0.7520296827279793</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2686325449170113</v>
+        <v>0.2686325449169971</v>
       </c>
       <c r="L21">
-        <v>1.178775216239657</v>
+        <v>1.178775216239671</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,19 +1175,19 @@
         <v>4.769196140482165</v>
       </c>
       <c r="C22">
-        <v>1.334583170493374</v>
+        <v>1.334583170493318</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.06876312931275308</v>
+        <v>0.0687631293127744</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>1.453649959542872</v>
+        <v>1.453649959542886</v>
       </c>
       <c r="H22">
         <v>0.7989220744278498</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.2908012212664772</v>
+        <v>0.2908012212664914</v>
       </c>
       <c r="L22">
         <v>1.275065155139316</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.580059047578004</v>
+        <v>4.580059047578288</v>
       </c>
       <c r="C23">
-        <v>1.280719478762535</v>
+        <v>1.280719478762819</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.06658971925816815</v>
+        <v>0.0665897192581717</v>
       </c>
       <c r="F23">
         <v>2.562285531758803</v>
@@ -1228,7 +1228,7 @@
         <v>1.398162236782554</v>
       </c>
       <c r="H23">
-        <v>0.773480724741141</v>
+        <v>0.7734807247411339</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.278902726984704</v>
+        <v>0.2789027269847111</v>
       </c>
       <c r="L23">
-        <v>1.223456591801181</v>
+        <v>1.223456591801167</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,19 +1251,19 @@
         <v>3.876891989158025</v>
       </c>
       <c r="C24">
-        <v>1.081367298788081</v>
+        <v>1.081367298787967</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05875598958298411</v>
+        <v>0.05875598958301964</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.200926290041082</v>
+        <v>1.200926290041096</v>
       </c>
       <c r="H24">
         <v>0.6856530310716948</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2351984503430202</v>
+        <v>0.2351984503430344</v>
       </c>
       <c r="L24">
-        <v>1.032398005832881</v>
+        <v>1.032398005832889</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.139975622882162</v>
+        <v>3.139975622882218</v>
       </c>
       <c r="C25">
-        <v>0.8739049762215529</v>
+        <v>0.8739049762215245</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05100816406393704</v>
+        <v>0.05100816406395836</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
-        <v>1.010563260109237</v>
+        <v>1.010563260109251</v>
       </c>
       <c r="H25">
         <v>0.6058801151880644</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.1903580278955204</v>
+        <v>0.1903580278955346</v>
       </c>
       <c r="L25">
-        <v>0.8336322505176454</v>
+        <v>0.8336322505176597</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_49/res_line/pl_mw.xlsx
@@ -415,22 +415,22 @@
         <v>2.6102455563543</v>
       </c>
       <c r="C2">
-        <v>0.7256382265702257</v>
+        <v>0.7256382265704246</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04577942547246217</v>
+        <v>0.04577942547244618</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.8852073303952608</v>
+        <v>0.8852073303952324</v>
       </c>
       <c r="H2">
-        <v>0.5572350465204039</v>
+        <v>0.5572350465204323</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0.1588015409292716</v>
       </c>
       <c r="L2">
-        <v>0.6917776088591481</v>
+        <v>0.6917776088591623</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.256870312652381</v>
+        <v>2.256870312652325</v>
       </c>
       <c r="C3">
-        <v>0.6271085059412087</v>
+        <v>0.6271085059408392</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04247828590302127</v>
+        <v>0.04247828590304259</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
@@ -468,7 +468,7 @@
         <v>0.8076163192677654</v>
       </c>
       <c r="H3">
-        <v>0.5293912432278418</v>
+        <v>0.5293912432278347</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1381060731620529</v>
+        <v>0.1381060731620494</v>
       </c>
       <c r="L3">
-        <v>0.5976864772906723</v>
+        <v>0.5976864772906652</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.041986118567308</v>
+        <v>2.041986118567195</v>
       </c>
       <c r="C4">
-        <v>0.5673316009153666</v>
+        <v>0.5673316009150255</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04055511140701995</v>
+        <v>0.0405551114070235</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.7630668835346839</v>
+        <v>0.7630668835347052</v>
       </c>
       <c r="H4">
-        <v>0.5144835135661125</v>
+        <v>0.5144835135661197</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1256762944539993</v>
+        <v>0.1256762944539922</v>
       </c>
       <c r="L4">
-        <v>0.5407045391562662</v>
+        <v>0.5407045391562733</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.954853152480467</v>
+        <v>1.95485315248041</v>
       </c>
       <c r="C5">
-        <v>0.5431209780494441</v>
+        <v>0.5431209780494157</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03979534190212597</v>
+        <v>0.03979534190212775</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
@@ -544,7 +544,7 @@
         <v>0.7456170220900873</v>
       </c>
       <c r="H5">
-        <v>0.5089129082677459</v>
+        <v>0.5089129082677033</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0.1206722798324655</v>
       </c>
       <c r="L5">
-        <v>0.5176534898574019</v>
+        <v>0.5176534898574161</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.940408484548868</v>
+        <v>1.940408484548811</v>
       </c>
       <c r="C6">
         <v>0.5391089280791448</v>
@@ -576,10 +576,10 @@
         <v>0.0396705690227197</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.7427600055807417</v>
+        <v>0.7427600055807275</v>
       </c>
       <c r="H6">
         <v>0.5080171064886656</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1198448288609661</v>
+        <v>0.1198448288609768</v>
       </c>
       <c r="L6">
-        <v>0.513835313848034</v>
+        <v>0.5138353138480198</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.040809370399302</v>
+        <v>2.040809370399359</v>
       </c>
       <c r="C7">
-        <v>0.5670045255245952</v>
+        <v>0.5670045255248226</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04054477067533924</v>
+        <v>0.04054477067534457</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.7628287887777887</v>
+        <v>0.7628287887778313</v>
       </c>
       <c r="H7">
-        <v>0.5144064020591799</v>
+        <v>0.5144064020591657</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.125608571428323</v>
+        <v>0.1256085714283053</v>
       </c>
       <c r="L7">
-        <v>0.5403930149489398</v>
+        <v>0.5403930149489611</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,10 +640,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.487910461362389</v>
+        <v>2.487910461362503</v>
       </c>
       <c r="C8">
-        <v>0.6914952241623098</v>
+        <v>0.6914952241624235</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0.8577663517825798</v>
       </c>
       <c r="H8">
-        <v>0.5471514653092981</v>
+        <v>0.547151465309291</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1516028312397033</v>
+        <v>0.1516028312397104</v>
       </c>
       <c r="L8">
-        <v>0.6591525529795419</v>
+        <v>0.659152552979549</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.385861427032069</v>
+        <v>3.385861427032012</v>
       </c>
       <c r="C9">
-        <v>0.9429684099209226</v>
+        <v>0.9429684099210647</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05353621847264733</v>
+        <v>0.05353621847265799</v>
       </c>
       <c r="F9">
-        <v>1.895061171842826</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>1.072114771844369</v>
+        <v>1.072114771844355</v>
       </c>
       <c r="H9">
-        <v>0.6310138966607468</v>
+        <v>0.6310138966607326</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2052039971039861</v>
+        <v>0.205203997103979</v>
       </c>
       <c r="L9">
         <v>0.8997780509823912</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.065752937554919</v>
+        <v>4.065752937554976</v>
       </c>
       <c r="C10">
-        <v>1.134773660831655</v>
+        <v>1.134773660831598</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06082032241696211</v>
+        <v>0.06082032241692659</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>1.252465190350961</v>
+        <v>1.252465190350975</v>
       </c>
       <c r="H10">
         <v>0.7081680256024896</v>
@@ -746,7 +746,7 @@
         <v>0.246852418533912</v>
       </c>
       <c r="L10">
-        <v>1.083585174619103</v>
+        <v>1.083585174619117</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.381307759781123</v>
+        <v>4.381307759780952</v>
       </c>
       <c r="C11">
-        <v>1.22422983139802</v>
+        <v>1.224229831397963</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06433527872335532</v>
+        <v>0.06433527872334821</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.340947951071072</v>
+        <v>1.340947951071115</v>
       </c>
       <c r="H11">
-        <v>0.7475611213483546</v>
+        <v>0.7475611213483617</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0.2664635704701865</v>
       </c>
       <c r="L11">
-        <v>1.169322466038452</v>
+        <v>1.169322466038466</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.501881785855574</v>
+        <v>4.501881785855517</v>
       </c>
       <c r="C12">
         <v>1.258486111215689</v>
@@ -801,16 +801,16 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06569930224205933</v>
+        <v>0.06569930224209486</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>1.375522604044718</v>
+        <v>1.375522604044733</v>
       </c>
       <c r="H12">
-        <v>0.7631849094862631</v>
+        <v>0.7631849094862702</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2740019698135825</v>
+        <v>0.2740019698135683</v>
       </c>
       <c r="L12">
-        <v>1.202151299104443</v>
+        <v>1.202151299104436</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.475862858962557</v>
+        <v>4.475862858962614</v>
       </c>
       <c r="C13">
         <v>1.251090333120999</v>
@@ -839,16 +839,16 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06540399864149649</v>
+        <v>0.06540399864152135</v>
       </c>
       <c r="F13">
-        <v>2.504295469236084</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
         <v>1.368026356901893</v>
       </c>
       <c r="H13">
-        <v>0.7597870820694368</v>
+        <v>0.7597870820694439</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.27237317019339</v>
+        <v>0.2723731701933829</v>
       </c>
       <c r="L13">
-        <v>1.195063937065434</v>
+        <v>1.195063937065427</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.391204696789316</v>
+        <v>4.391204696789373</v>
       </c>
       <c r="C14">
         <v>1.227040075883053</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.06444681176747835</v>
+        <v>0.0644468117674748</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
@@ -886,7 +886,7 @@
         <v>1.343770138452527</v>
       </c>
       <c r="H14">
-        <v>0.74883178912809</v>
+        <v>0.7488317891280829</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2670814107847974</v>
+        <v>0.2670814107848187</v>
       </c>
       <c r="L14">
-        <v>1.172015706822606</v>
+        <v>1.172015706822613</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.339495528221676</v>
+        <v>4.339495528221619</v>
       </c>
       <c r="C15">
-        <v>1.212360302831314</v>
+        <v>1.212360302831144</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.06386493117503989</v>
+        <v>0.06386493117503633</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>1.329056153845045</v>
+        <v>1.329056153845073</v>
       </c>
       <c r="H15">
-        <v>0.7422162010404136</v>
+        <v>0.7422162010404065</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2638551771519246</v>
+        <v>0.2638551771519531</v>
       </c>
       <c r="L15">
-        <v>1.157946955505878</v>
+        <v>1.157946955505892</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.045271582395401</v>
+        <v>4.045271582395458</v>
       </c>
       <c r="C16">
-        <v>1.128977123089356</v>
+        <v>1.128977123089442</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.06059499694413262</v>
+        <v>0.0605949969441113</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>1.246823943670194</v>
+        <v>1.246823943670179</v>
       </c>
       <c r="H16">
-        <v>0.7056873523687983</v>
+        <v>0.7056873523687841</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2455855236834381</v>
+        <v>0.2455855236834523</v>
       </c>
       <c r="L16">
-        <v>1.0780294349087</v>
+        <v>1.078029434908707</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.866500260428722</v>
+        <v>3.866500260428666</v>
       </c>
       <c r="C17">
-        <v>1.07843157424989</v>
+        <v>1.078431574250004</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05864328737499136</v>
+        <v>0.05864328737500912</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>1.198121923552463</v>
+        <v>1.198121923552478</v>
       </c>
       <c r="H17">
-        <v>0.6844377891893814</v>
+        <v>0.6844377891893885</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2345590634273407</v>
+        <v>0.2345590634273194</v>
       </c>
       <c r="L17">
-        <v>1.029584343117648</v>
+        <v>1.029584343117634</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.764253762579983</v>
+        <v>3.764253762580097</v>
       </c>
       <c r="C18">
-        <v>1.049562129251456</v>
+        <v>1.049562129251342</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05753940172694527</v>
+        <v>0.05753940172694882</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.170706474474869</v>
+        <v>1.170706474474883</v>
       </c>
       <c r="H18">
         <v>0.6726139332434968</v>
@@ -1050,7 +1050,7 @@
         <v>0.2282784324452294</v>
       </c>
       <c r="L18">
-        <v>1.001915978917793</v>
+        <v>1.001915978917786</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.729729063379409</v>
+        <v>3.729729063379466</v>
       </c>
       <c r="C19">
-        <v>1.039820479335475</v>
+        <v>1.039820479335361</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05716873969975111</v>
+        <v>0.05716873969970138</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
         <v>1.161522527812565</v>
       </c>
       <c r="H19">
-        <v>0.6686764744856646</v>
+        <v>0.6686764744856717</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2261620142851513</v>
+        <v>0.2261620142851584</v>
       </c>
       <c r="L19">
-        <v>0.9925799941935836</v>
+        <v>0.9925799941935693</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.885469727641521</v>
+        <v>3.885469727641578</v>
       </c>
       <c r="C20">
-        <v>1.083790784283735</v>
+        <v>1.083790784283366</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05884908867326999</v>
+        <v>0.05884908867325578</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.203243615479636</v>
+        <v>1.20324361547965</v>
       </c>
       <c r="H20">
-        <v>0.6866580096884434</v>
+        <v>0.6866580096884505</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2357263719043914</v>
+        <v>0.2357263719043701</v>
       </c>
       <c r="L20">
-        <v>1.034720736007117</v>
+        <v>1.03472073600711</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.416039987621446</v>
+        <v>4.416039987621218</v>
       </c>
       <c r="C21">
         <v>1.234093316460985</v>
@@ -1143,16 +1143,16 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.06472703086952691</v>
+        <v>0.06472703086947362</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.350864559988807</v>
+        <v>1.35086455998885</v>
       </c>
       <c r="H21">
-        <v>0.7520296827279793</v>
+        <v>0.7520296827279935</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2686325449169971</v>
+        <v>0.2686325449170113</v>
       </c>
       <c r="L21">
-        <v>1.178775216239671</v>
+        <v>1.178775216239657</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,19 +1175,19 @@
         <v>4.769196140482165</v>
       </c>
       <c r="C22">
-        <v>1.334583170493318</v>
+        <v>1.334583170493374</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0687631293127744</v>
+        <v>0.06876312931275308</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>1.453649959542886</v>
+        <v>1.453649959542872</v>
       </c>
       <c r="H22">
         <v>0.7989220744278498</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.2908012212664914</v>
+        <v>0.2908012212664772</v>
       </c>
       <c r="L22">
         <v>1.275065155139316</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.580059047578288</v>
+        <v>4.580059047578004</v>
       </c>
       <c r="C23">
-        <v>1.280719478762819</v>
+        <v>1.280719478762535</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0665897192581717</v>
+        <v>0.06658971925816815</v>
       </c>
       <c r="F23">
         <v>2.562285531758803</v>
@@ -1228,7 +1228,7 @@
         <v>1.398162236782554</v>
       </c>
       <c r="H23">
-        <v>0.7734807247411339</v>
+        <v>0.773480724741141</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.2789027269847111</v>
+        <v>0.278902726984704</v>
       </c>
       <c r="L23">
-        <v>1.223456591801167</v>
+        <v>1.223456591801181</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,19 +1251,19 @@
         <v>3.876891989158025</v>
       </c>
       <c r="C24">
-        <v>1.081367298787967</v>
+        <v>1.081367298788081</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05875598958301964</v>
+        <v>0.05875598958298411</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.200926290041096</v>
+        <v>1.200926290041082</v>
       </c>
       <c r="H24">
         <v>0.6856530310716948</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2351984503430344</v>
+        <v>0.2351984503430202</v>
       </c>
       <c r="L24">
-        <v>1.032398005832889</v>
+        <v>1.032398005832881</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.139975622882218</v>
+        <v>3.139975622882162</v>
       </c>
       <c r="C25">
-        <v>0.8739049762215245</v>
+        <v>0.8739049762215529</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05100816406395836</v>
+        <v>0.05100816406393704</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>1.010563260109251</v>
+        <v>1.010563260109237</v>
       </c>
       <c r="H25">
         <v>0.6058801151880644</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.1903580278955346</v>
+        <v>0.1903580278955204</v>
       </c>
       <c r="L25">
-        <v>0.8336322505176597</v>
+        <v>0.8336322505176454</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_49/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.6102455563543</v>
+        <v>2.610207952442124</v>
       </c>
       <c r="C2">
-        <v>0.7256382265704246</v>
+        <v>0.7251569166458012</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04577942547244618</v>
+        <v>0.04579722416546339</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.8852073303952324</v>
+        <v>0.2767919202883888</v>
       </c>
       <c r="H2">
-        <v>0.5572350465204323</v>
+        <v>0.6101411788401521</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.5556916449260143</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1588015409292716</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6917776088591623</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1587700150116618</v>
+      </c>
+      <c r="M2">
+        <v>0.6917230683238387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.256870312652325</v>
+        <v>2.256870015555023</v>
       </c>
       <c r="C3">
-        <v>0.6271085059408392</v>
+        <v>0.6267054287124836</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04247828590304259</v>
+        <v>0.04249582482776404</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.8076163192677654</v>
+        <v>0.2481248998644006</v>
       </c>
       <c r="H3">
-        <v>0.5293912432278347</v>
+        <v>0.5615540919093505</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.5280021940120037</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1381060731620494</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5976864772906652</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1380791964537273</v>
+      </c>
+      <c r="M3">
+        <v>0.5976443462975425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.041986118567195</v>
+        <v>2.042004160839724</v>
       </c>
       <c r="C4">
-        <v>0.5673316009150255</v>
+        <v>0.5669746599399161</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0405551114070235</v>
+        <v>0.04057261581489691</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.7630668835347052</v>
+        <v>0.2315151231309471</v>
       </c>
       <c r="H4">
-        <v>0.5144835135661197</v>
+        <v>0.5338150388316265</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.513186650949919</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1256762944539922</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5407045391562733</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.1256520846884328</v>
+      </c>
+      <c r="M4">
+        <v>0.5406688652034859</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.95485315248041</v>
+        <v>1.954877667119405</v>
       </c>
       <c r="C5">
-        <v>0.5431209780494157</v>
+        <v>0.5427824343269947</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03979534190212775</v>
+        <v>0.03981286256630945</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.7456170220900873</v>
+        <v>0.2249710466324615</v>
       </c>
       <c r="H5">
-        <v>0.5089129082677033</v>
+        <v>0.5229896515738233</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.5076530575828926</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1206722798324655</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5176534898574161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.1206491176649038</v>
+      </c>
+      <c r="M5">
+        <v>0.5176201937909468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.940408484548811</v>
+        <v>1.940434017465321</v>
       </c>
       <c r="C6">
-        <v>0.5391089280791448</v>
+        <v>0.5387734168419342</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0396705690227197</v>
+        <v>0.03968809418521424</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.7427600055807275</v>
+        <v>0.2238972802293304</v>
       </c>
       <c r="H6">
-        <v>0.5080171064886656</v>
+        <v>0.5212196759346455</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.5067633707000851</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1198448288609768</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5138353138480198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.119821838493074</v>
+      </c>
+      <c r="M6">
+        <v>0.5138023983766331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.040809370399359</v>
+        <v>2.040827503830428</v>
       </c>
       <c r="C7">
-        <v>0.5670045255248226</v>
+        <v>0.5666478342039056</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04054477067534457</v>
+        <v>0.04056227518112721</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.7628287887778313</v>
+        <v>0.2314259896782573</v>
       </c>
       <c r="H7">
-        <v>0.5144064020591657</v>
+        <v>0.5336671669907602</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.5131100407263673</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1256085714283053</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5403930149489611</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.1255843759399724</v>
+      </c>
+      <c r="M7">
+        <v>0.5403573740430261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.487910461362503</v>
+        <v>2.487886762700327</v>
       </c>
       <c r="C8">
-        <v>0.6914952241624235</v>
+        <v>0.6910413299983702</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04461831579526354</v>
+        <v>0.04463599831737497</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.8577663517825798</v>
+        <v>0.2666860341368746</v>
       </c>
       <c r="H8">
-        <v>0.547151465309291</v>
+        <v>0.5929236895260175</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.5456618819942989</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1516028312397104</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.659152552979549</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.1515729524713159</v>
+      </c>
+      <c r="M8">
+        <v>0.6591025573942773</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.385861427032012</v>
+        <v>3.385711835278755</v>
       </c>
       <c r="C9">
-        <v>0.9429684099210647</v>
+        <v>0.9423050283349141</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05353621847265799</v>
+        <v>0.05355529040085472</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>1.072114771844355</v>
+        <v>0.3449420402626657</v>
       </c>
       <c r="H9">
-        <v>0.6310138966607326</v>
+        <v>0.7281295818582691</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.629119960314604</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.205203997103979</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.8997780509823912</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.205161060163924</v>
+      </c>
+      <c r="M9">
+        <v>0.8996886555897348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.065752937554976</v>
+        <v>4.065471658943807</v>
       </c>
       <c r="C10">
-        <v>1.134773660831598</v>
+        <v>1.13393867924907</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06082032241692659</v>
+        <v>0.06084111259495373</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>1.252465190350975</v>
+        <v>0.4099290161767044</v>
       </c>
       <c r="H10">
-        <v>0.7081680256024896</v>
+        <v>0.842786355410766</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.7059534998208008</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.246852418533912</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.083585174619117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.2467980087470849</v>
+      </c>
+      <c r="M10">
+        <v>1.083456634944191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.381307759780952</v>
+        <v>4.380954628882023</v>
       </c>
       <c r="C11">
-        <v>1.224229831397963</v>
+        <v>1.223311254447992</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06433527872334821</v>
+        <v>0.06435701366857316</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.340947951071115</v>
+        <v>0.4416208428099111</v>
       </c>
       <c r="H11">
-        <v>0.7475611213483617</v>
+        <v>0.89923890852873</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.7451934653930792</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2664635704701865</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.169322466038466</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.2664033300988251</v>
+      </c>
+      <c r="M11">
+        <v>1.169172974483551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.501881785855517</v>
+        <v>4.501499375906576</v>
       </c>
       <c r="C12">
-        <v>1.258486111215689</v>
+        <v>1.257534911449625</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06569930224209486</v>
+        <v>0.06572141911591345</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>1.375522604044733</v>
+        <v>0.4539763031470159</v>
       </c>
       <c r="H12">
-        <v>0.7631849094862702</v>
+        <v>0.9213270443519832</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.7607579974643244</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2740019698135683</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.202151299104436</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.2739394122030205</v>
+      </c>
+      <c r="M12">
+        <v>1.201993325188063</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.475862858962614</v>
+        <v>4.475486853163147</v>
       </c>
       <c r="C13">
-        <v>1.251090333120999</v>
+        <v>1.250146205331134</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06540399864152135</v>
+        <v>0.06542603217701526</v>
       </c>
       <c r="F13">
         <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>1.368026356901893</v>
+        <v>0.4512987288555337</v>
       </c>
       <c r="H13">
-        <v>0.7597870820694439</v>
+        <v>0.9165367353972442</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.7573729922712147</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2723731701933829</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.195063937065427</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.2723111168923396</v>
+      </c>
+      <c r="M13">
+        <v>1.19490781609435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.391204696789373</v>
+        <v>4.390849200824164</v>
       </c>
       <c r="C14">
-        <v>1.227040075883053</v>
+        <v>1.226118835506497</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0644468117674748</v>
+        <v>0.06446857764678882</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.343770138452527</v>
+        <v>0.4426299299042142</v>
       </c>
       <c r="H14">
-        <v>0.7488317891280829</v>
+        <v>0.901041288279103</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.7464592849747689</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2670814107848187</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.172015706822613</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.2670209821021317</v>
+      </c>
+      <c r="M14">
+        <v>1.171865529024501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.339495528221619</v>
+        <v>4.339152313970772</v>
       </c>
       <c r="C15">
-        <v>1.212360302831144</v>
+        <v>1.211452950111891</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.06386493117503633</v>
+        <v>0.06388653627080387</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>1.329056153845073</v>
+        <v>0.4373677464932939</v>
       </c>
       <c r="H15">
-        <v>0.7422162010404065</v>
+        <v>0.8916454268123175</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.7398689968323424</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2638551771519531</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.157946955505892</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.263795728647942</v>
+      </c>
+      <c r="M15">
+        <v>1.157800343498266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.045271582395458</v>
+        <v>4.044994730419376</v>
       </c>
       <c r="C16">
-        <v>1.128977123089442</v>
+        <v>1.128147479335126</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0605949969441113</v>
+        <v>0.06061572872810572</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>1.246823943670179</v>
+        <v>0.4079047046675015</v>
       </c>
       <c r="H16">
-        <v>0.7056873523687841</v>
+        <v>0.839191154026679</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.7034826692839431</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2455855236834523</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.078029434908707</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.2455314809023292</v>
+      </c>
+      <c r="M16">
+        <v>1.077902193393413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.866500260428666</v>
+        <v>3.866260828360168</v>
       </c>
       <c r="C17">
-        <v>1.078431574250004</v>
+        <v>1.077648072307227</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05864328737500912</v>
+        <v>0.05866352577063338</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>1.198121923552478</v>
+        <v>0.3904077495022449</v>
       </c>
       <c r="H17">
-        <v>0.6844377891893885</v>
+        <v>0.8081746128393519</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.6823185252589141</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2345590634273194</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.029584343117634</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.2345081663475597</v>
+      </c>
+      <c r="M17">
+        <v>1.029468116360697</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.764253762580097</v>
+        <v>3.764034753376279</v>
       </c>
       <c r="C18">
-        <v>1.049562129251342</v>
+        <v>1.048804657849843</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05753940172694882</v>
+        <v>0.05755937166247449</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.170706474474883</v>
+        <v>0.3805411027814358</v>
       </c>
       <c r="H18">
-        <v>0.6726139332434968</v>
+        <v>0.7907326857729942</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.6705431289773074</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2282784324452294</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1.001915978917786</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.2282292886372019</v>
+      </c>
+      <c r="M18">
+        <v>1.001805798245606</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.729729063379466</v>
+        <v>3.72951678979058</v>
       </c>
       <c r="C19">
-        <v>1.039820479335361</v>
+        <v>1.039071738753051</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05716873969970138</v>
+        <v>0.05718862134570202</v>
       </c>
       <c r="F19">
         <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>1.161522527812565</v>
+        <v>0.37723291531033</v>
       </c>
       <c r="H19">
-        <v>0.6686764744856717</v>
+        <v>0.7848928586155353</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.6666219686637262</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2261620142851584</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.9925799941935693</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.2261134550611672</v>
+      </c>
+      <c r="M19">
+        <v>0.992471813575861</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.885469727641578</v>
+        <v>3.885226428364263</v>
       </c>
       <c r="C20">
-        <v>1.083790784283366</v>
+        <v>1.083002424293397</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05884908867325578</v>
+        <v>0.0588693779990308</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.20324361547965</v>
+        <v>0.3922495975123184</v>
       </c>
       <c r="H20">
-        <v>0.6866580096884505</v>
+        <v>0.8114345526673787</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.68452972368312</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2357263719043701</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.03472073600711</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.2356751459018724</v>
+      </c>
+      <c r="M20">
+        <v>1.034603367292618</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.416039987621218</v>
+        <v>4.415678526735007</v>
       </c>
       <c r="C21">
-        <v>1.234093316460985</v>
+        <v>1.23316538125988</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.06472703086947362</v>
+        <v>0.06474887470576007</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.35086455998885</v>
+        <v>0.4451661286449564</v>
       </c>
       <c r="H21">
-        <v>0.7520296827279935</v>
+        <v>0.905572580071393</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.7496450002535582</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2686325449170113</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.178775216239657</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.2685716422040443</v>
+      </c>
+      <c r="M21">
+        <v>1.178623308527023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.769196140482165</v>
+        <v>4.768745174343394</v>
       </c>
       <c r="C22">
-        <v>1.334583170493374</v>
+        <v>1.333558275103428</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.06876312931275308</v>
+        <v>0.06878613008073486</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>1.453649959542872</v>
+        <v>0.481843570219965</v>
       </c>
       <c r="H22">
-        <v>0.7989220744278498</v>
+        <v>0.9712930683845968</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.7963622932170722</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.2908012212664772</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.275065155139316</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.2907333437093769</v>
+      </c>
+      <c r="M22">
+        <v>1.274887419308271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.580059047578004</v>
+        <v>4.579657109817788</v>
       </c>
       <c r="C23">
-        <v>1.280719478762535</v>
+        <v>1.279746922980792</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.06658971925816815</v>
+        <v>0.06661208949268627</v>
       </c>
       <c r="F23">
         <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>1.398162236782554</v>
+        <v>0.4620588351856725</v>
       </c>
       <c r="H23">
-        <v>0.773480724741141</v>
+        <v>0.9357986467765613</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.7710151693606377</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.278902726984704</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.223456591801181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.2788386398366853</v>
+      </c>
+      <c r="M23">
+        <v>1.22329297552993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.876891989158025</v>
+        <v>3.876650441616391</v>
       </c>
       <c r="C24">
-        <v>1.081367298788081</v>
+        <v>1.080581136656662</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05875598958298411</v>
+        <v>0.05877625583595147</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.200926290041082</v>
+        <v>0.3914163017309562</v>
       </c>
       <c r="H24">
-        <v>0.6856530310716948</v>
+        <v>0.80995952631487</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.6835288259515053</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2351984503430202</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1.032398005832881</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.2351473732169964</v>
+      </c>
+      <c r="M24">
+        <v>1.032281154282607</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.139975622882162</v>
+        <v>3.139865952784476</v>
       </c>
       <c r="C25">
-        <v>0.8739049762215529</v>
+        <v>0.8733008696341642</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05100816406393704</v>
+        <v>0.05102674198298729</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>1.010563260109237</v>
+        <v>0.3226096565230421</v>
       </c>
       <c r="H25">
-        <v>0.6058801151880644</v>
+        <v>0.6891585319716143</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.6040990454456221</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.1903580278955204</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.8336322505176454</v>
+        <v>0.190318894266774</v>
+      </c>
+      <c r="M25">
+        <v>0.8335550301984114</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_49/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.610207952442124</v>
+        <v>2.55922557119834</v>
       </c>
       <c r="C2">
-        <v>0.7251569166458012</v>
+        <v>0.5963407872319806</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04579722416546339</v>
+        <v>0.5172353245935497</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>2.683729851672297</v>
       </c>
       <c r="G2">
-        <v>0.2767919202883888</v>
+        <v>0.0007883624723595332</v>
       </c>
       <c r="H2">
-        <v>0.6101411788401521</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5556916449260143</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.07286145979512781</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7074775716277557</v>
       </c>
       <c r="L2">
-        <v>0.1587700150116618</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6917230683238387</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.6396992459974555</v>
+      </c>
+      <c r="O2">
+        <v>0.8800653065392083</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.256870015555023</v>
+        <v>2.212465619682575</v>
       </c>
       <c r="C3">
-        <v>0.6267054287124836</v>
+        <v>0.5145825499426735</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04249582482776404</v>
+        <v>0.4525722494403794</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>2.403065382329885</v>
       </c>
       <c r="G3">
-        <v>0.2481248998644006</v>
+        <v>0.0007955753492790064</v>
       </c>
       <c r="H3">
-        <v>0.5615540919093505</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5280021940120037</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.06697381730509022</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6109862399681845</v>
       </c>
       <c r="L3">
-        <v>0.1380791964537273</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5976443462975425</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.6929885611080575</v>
+      </c>
+      <c r="O3">
+        <v>0.8087267591591001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.042004160839724</v>
+        <v>2.00234998559506</v>
       </c>
       <c r="C4">
-        <v>0.5669746599399161</v>
+        <v>0.4649870248139791</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04057261581489691</v>
+        <v>0.4134637820230864</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>2.236396101377665</v>
       </c>
       <c r="G4">
-        <v>0.2315151231309471</v>
+        <v>0.0008001182935896792</v>
       </c>
       <c r="H4">
-        <v>0.5338150388316265</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.513186650949919</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.06358726567991013</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5524989163152156</v>
       </c>
       <c r="L4">
-        <v>0.1256520846884328</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5406688652034859</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.7272604503022926</v>
+      </c>
+      <c r="O4">
+        <v>0.7675227091604384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.954877667119405</v>
+        <v>1.91732849109178</v>
       </c>
       <c r="C5">
-        <v>0.5427824343269947</v>
+        <v>0.4449033067274115</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03981286256630945</v>
+        <v>0.3976576168576216</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>2.169757164943377</v>
       </c>
       <c r="G5">
-        <v>0.2249710466324615</v>
+        <v>0.0008019996253228142</v>
       </c>
       <c r="H5">
-        <v>0.5229896515738233</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5076530575828926</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.06225932804791512</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.528827230618603</v>
       </c>
       <c r="L5">
-        <v>0.1206491176649038</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5176201937909468</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.741599714757589</v>
+      </c>
+      <c r="O5">
+        <v>0.751325942730503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.940434017465321</v>
+        <v>1.903244321345255</v>
       </c>
       <c r="C6">
-        <v>0.5387734168419342</v>
+        <v>0.4415753885029119</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03968809418521424</v>
+        <v>0.3950404003170362</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>2.158765175050021</v>
       </c>
       <c r="G6">
-        <v>0.2238972802293304</v>
+        <v>0.0008023138706269891</v>
       </c>
       <c r="H6">
-        <v>0.5212196759346455</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5067633707000851</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.06204182434728978</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5249055850654685</v>
       </c>
       <c r="L6">
-        <v>0.119821838493074</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5138023983766331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.7440028053212462</v>
+      </c>
+      <c r="O6">
+        <v>0.7486707325589421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.040827503830428</v>
+        <v>2.001201044564596</v>
       </c>
       <c r="C7">
-        <v>0.5666478342039056</v>
+        <v>0.4647156867713136</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04056227518112721</v>
+        <v>0.4132501083583833</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>2.235492382743246</v>
       </c>
       <c r="G7">
-        <v>0.2314259896782573</v>
+        <v>0.00080014354253239</v>
       </c>
       <c r="H7">
-        <v>0.5336671669907602</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5131100407263673</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.06356915240317207</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5521790501244439</v>
       </c>
       <c r="L7">
-        <v>0.1255843759399724</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5403573740430261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.7274523451567134</v>
+      </c>
+      <c r="O7">
+        <v>0.7673019426155676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.487886762700327</v>
+        <v>2.439018956343602</v>
       </c>
       <c r="C8">
-        <v>0.6910413299983702</v>
+        <v>0.5680092954559939</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04463599831737497</v>
+        <v>0.4948042078438064</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>2.585692111342752</v>
       </c>
       <c r="G8">
-        <v>0.2666860341368746</v>
+        <v>0.0007908265994155575</v>
       </c>
       <c r="H8">
-        <v>0.5929236895260175</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5456618819942989</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.07078061837882643</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6740320086985463</v>
       </c>
       <c r="L8">
-        <v>0.1515729524713159</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6591025573942773</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.657740561996107</v>
+      </c>
+      <c r="O8">
+        <v>0.8548914307145239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.385711835278755</v>
+        <v>3.324813412490869</v>
       </c>
       <c r="C9">
-        <v>0.9423050283349141</v>
+        <v>0.7766254236860561</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05355529040085472</v>
+        <v>0.6603960911928084</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>3.324490319704495</v>
       </c>
       <c r="G9">
-        <v>0.3449420402626657</v>
+        <v>0.0007733964841327488</v>
       </c>
       <c r="H9">
-        <v>0.7281295818582691</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.629119960314604</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.08700214398766093</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.9204294613998343</v>
       </c>
       <c r="L9">
-        <v>0.205161060163924</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8996886555897348</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.5341952413735545</v>
+      </c>
+      <c r="O9">
+        <v>1.050211466492811</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.065471658943807</v>
+        <v>4.000092933844087</v>
       </c>
       <c r="C10">
-        <v>1.13393867924907</v>
+        <v>0.9355713038122815</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06084111259495373</v>
+        <v>0.7869960570345995</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>3.910189299288135</v>
       </c>
       <c r="G10">
-        <v>0.4099290161767044</v>
+        <v>0.0007610009444599462</v>
       </c>
       <c r="H10">
-        <v>0.842786355410766</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7059534998208008</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1006050996674404</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.108223017950436</v>
       </c>
       <c r="L10">
-        <v>0.2467980087470849</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.083456634944191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.4527556650317806</v>
+      </c>
+      <c r="O10">
+        <v>1.212654295156142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.380954628882023</v>
+        <v>4.314633575944072</v>
       </c>
       <c r="C11">
-        <v>1.223311254447992</v>
+        <v>1.009624990877654</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06435701366857316</v>
+        <v>0.8460476142991809</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>4.188832020809741</v>
       </c>
       <c r="G11">
-        <v>0.4416208428099111</v>
+        <v>0.0007554250849361032</v>
       </c>
       <c r="H11">
-        <v>0.89923890852873</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7451934653930792</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1072670369597475</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.195696523579471</v>
       </c>
       <c r="L11">
-        <v>0.2664033300988251</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.169172974483551</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.418068695254231</v>
+      </c>
+      <c r="O11">
+        <v>1.291843114229465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.501499375906576</v>
+        <v>4.43499222659284</v>
       </c>
       <c r="C12">
-        <v>1.257534911449625</v>
+        <v>1.03796795459121</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06572141911591345</v>
+        <v>0.8686560923022739</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>4.296378718486977</v>
       </c>
       <c r="G12">
-        <v>0.4539763031470159</v>
+        <v>0.0007533202432014784</v>
       </c>
       <c r="H12">
-        <v>0.9213270443519832</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7607579974643244</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.109868294907379</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.229169323516345</v>
       </c>
       <c r="L12">
-        <v>0.2739394122030205</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.201993325188063</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.4053057231483166</v>
+      </c>
+      <c r="O12">
+        <v>1.322704093925182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.475486853163147</v>
+        <v>4.409011972302096</v>
       </c>
       <c r="C13">
-        <v>1.250146205331134</v>
+        <v>1.031849575975286</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06542603217701526</v>
+        <v>0.8637753270426174</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>4.273121510510578</v>
       </c>
       <c r="G13">
-        <v>0.4512987288555337</v>
+        <v>0.0007537733064073435</v>
       </c>
       <c r="H13">
-        <v>0.9165367353972442</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7573729922712147</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1093043945436989</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.221943915826628</v>
       </c>
       <c r="L13">
-        <v>0.2723111168923396</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.19490781609435</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.4080373338185979</v>
+      </c>
+      <c r="O13">
+        <v>1.316016807893348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.390849200824164</v>
+        <v>4.324509337847985</v>
       </c>
       <c r="C14">
-        <v>1.226118835506497</v>
+        <v>1.011950457815118</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.06446857764678882</v>
+        <v>0.847902448892583</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>4.197637543388254</v>
       </c>
       <c r="G14">
-        <v>0.4426299299042142</v>
+        <v>0.0007552518008581043</v>
       </c>
       <c r="H14">
-        <v>0.901041288279103</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7464592849747689</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1074794057508868</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.198443030027221</v>
       </c>
       <c r="L14">
-        <v>0.2670209821021317</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.171865529024501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.4170110145424726</v>
+      </c>
+      <c r="O14">
+        <v>1.29436385266726</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.339152313970772</v>
+        <v>4.272917791476971</v>
       </c>
       <c r="C15">
-        <v>1.211452950111891</v>
+        <v>0.9998023671452643</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.06388653627080387</v>
+        <v>0.8382131926501017</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>4.151674700920552</v>
       </c>
       <c r="G15">
-        <v>0.4373677464932939</v>
+        <v>0.0007561582054130371</v>
       </c>
       <c r="H15">
-        <v>0.8916454268123175</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7398689968323424</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1063721058726799</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.184095176195228</v>
       </c>
       <c r="L15">
-        <v>0.263795728647942</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.157800343498266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.4225571752541573</v>
+      </c>
+      <c r="O15">
+        <v>1.28121819766406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.044994730419376</v>
+        <v>3.979700749166682</v>
       </c>
       <c r="C16">
-        <v>1.128147479335126</v>
+        <v>0.9307709471171961</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.06061572872810572</v>
+        <v>0.7831693317501589</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>3.89224769454438</v>
       </c>
       <c r="G16">
-        <v>0.4079047046675015</v>
+        <v>0.0007613664050673164</v>
       </c>
       <c r="H16">
-        <v>0.839191154026679</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7034826692839431</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1001801187426992</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.102552065190594</v>
       </c>
       <c r="L16">
-        <v>0.2455314809023292</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.077902193393413</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.4550727464327107</v>
+      </c>
+      <c r="O16">
+        <v>1.20759493897279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.866260828360168</v>
+        <v>3.801833654577877</v>
       </c>
       <c r="C17">
-        <v>1.077648072307227</v>
+        <v>0.8889030973789431</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05866352577063338</v>
+        <v>0.7498005261667373</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>3.73640878483144</v>
       </c>
       <c r="G17">
-        <v>0.3904077495022449</v>
+        <v>0.0007645759457763486</v>
       </c>
       <c r="H17">
-        <v>0.8081746128393519</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6823185252589141</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.09650987486394769</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.053088395670599</v>
       </c>
       <c r="L17">
-        <v>0.2345081663475597</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.029468116360697</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.4756465917836437</v>
+      </c>
+      <c r="O17">
+        <v>1.163860870595897</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.764034753376279</v>
+        <v>3.700208456141866</v>
       </c>
       <c r="C18">
-        <v>1.048804657849843</v>
+        <v>0.8649830941679397</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05755937166247449</v>
+        <v>0.7307426676806017</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>3.647904713129265</v>
       </c>
       <c r="G18">
-        <v>0.3805411027814358</v>
+        <v>0.000766428074548972</v>
       </c>
       <c r="H18">
-        <v>0.7907326857729942</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6705431289773074</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.09444275509287081</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.024827072998519</v>
       </c>
       <c r="L18">
-        <v>0.2282292886372019</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.001805798245606</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.4877000906760234</v>
+      </c>
+      <c r="O18">
+        <v>1.139196822582036</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.72951678979058</v>
+        <v>3.665911120852115</v>
       </c>
       <c r="C19">
-        <v>1.039071738753051</v>
+        <v>0.8569105016833589</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05718862134570202</v>
+        <v>0.7243121450832462</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>3.618125068572823</v>
       </c>
       <c r="G19">
-        <v>0.37723291531033</v>
+        <v>0.0007670562882352982</v>
       </c>
       <c r="H19">
-        <v>0.7848928586155353</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6666219686637262</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.09375011052323856</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.015289168301763</v>
       </c>
       <c r="L19">
-        <v>0.2261134550611672</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.992471813575861</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.4918180447271165</v>
+      </c>
+      <c r="O19">
+        <v>1.130927060214049</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.885226428364263</v>
+        <v>3.820696299303108</v>
       </c>
       <c r="C20">
-        <v>1.083002424293397</v>
+        <v>0.8933429754194719</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0588693779990308</v>
+        <v>0.7533384693761889</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>3.752879233164663</v>
       </c>
       <c r="G20">
-        <v>0.3922495975123184</v>
+        <v>0.0007642336714152638</v>
       </c>
       <c r="H20">
-        <v>0.8114345526673787</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.68452972368312</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.09689596346383667</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.05833396841318</v>
       </c>
       <c r="L20">
-        <v>0.2356751459018724</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.034603367292618</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.4734334805540641</v>
+      </c>
+      <c r="O20">
+        <v>1.168464887023518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.415678526735007</v>
+        <v>4.349294263515901</v>
       </c>
       <c r="C21">
-        <v>1.23316538125988</v>
+        <v>1.017786733610762</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.06474887470576007</v>
+        <v>0.8525576767775931</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>4.219751521091808</v>
       </c>
       <c r="G21">
-        <v>0.4451661286449564</v>
+        <v>0.0007548173725563483</v>
       </c>
       <c r="H21">
-        <v>0.905572580071393</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7496450002535582</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1080132282844346</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.20533588339714</v>
       </c>
       <c r="L21">
-        <v>0.2685716422040443</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.178623308527023</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.4143648419030708</v>
+      </c>
+      <c r="O21">
+        <v>1.300699160818581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.768745174343394</v>
+        <v>4.702150938712919</v>
       </c>
       <c r="C22">
-        <v>1.333558275103428</v>
+        <v>1.100896871078731</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.06878613008073486</v>
+        <v>0.9188634600983505</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>4.536871869875085</v>
       </c>
       <c r="G22">
-        <v>0.481843570219965</v>
+        <v>0.0007487004746528912</v>
       </c>
       <c r="H22">
-        <v>0.9712930683845968</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7963622932170722</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1157425927582736</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.303471944457712</v>
       </c>
       <c r="L22">
-        <v>0.2907333437093769</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.274887419308271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.3779481667562088</v>
+      </c>
+      <c r="O22">
+        <v>1.392279093192258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.579657109817788</v>
+        <v>4.513078747981183</v>
       </c>
       <c r="C23">
-        <v>1.279746922980792</v>
+        <v>1.056358664640868</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.06661208949268627</v>
+        <v>0.883327630507992</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>4.366420504117713</v>
       </c>
       <c r="G23">
-        <v>0.4620588351856725</v>
+        <v>0.000751962661754422</v>
       </c>
       <c r="H23">
-        <v>0.9357986467765613</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7710151693606377</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.111571058632137</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.250886341776166</v>
       </c>
       <c r="L23">
-        <v>0.2788386398366853</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.22329297552993</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.3971722240138451</v>
+      </c>
+      <c r="O23">
+        <v>1.342888023978517</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.876650441616391</v>
+        <v>3.812166540246437</v>
       </c>
       <c r="C24">
-        <v>1.080581136656662</v>
+        <v>0.8913352417710882</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05877625583595147</v>
+        <v>0.7517385745381517</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>3.745429569369833</v>
       </c>
       <c r="G24">
-        <v>0.3914163017309562</v>
+        <v>0.0007643883919424002</v>
       </c>
       <c r="H24">
-        <v>0.80995952631487</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6835288259515053</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.09672127978736711</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.055961900793292</v>
       </c>
       <c r="L24">
-        <v>0.2351473732169964</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.032281154282607</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.4744333287445794</v>
+      </c>
+      <c r="O24">
+        <v>1.166381926775117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.139865952784476</v>
+        <v>3.081505264427506</v>
       </c>
       <c r="C25">
-        <v>0.8733008696341642</v>
+        <v>0.7193498089067418</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05102674198298729</v>
+        <v>0.6148496763734244</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>3.117975811990334</v>
       </c>
       <c r="G25">
-        <v>0.3226096565230421</v>
+        <v>0.0007780317101068584</v>
       </c>
       <c r="H25">
-        <v>0.6891585319716143</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6040990454456221</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.08235096213476112</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8527604841284671</v>
       </c>
       <c r="L25">
-        <v>0.190318894266774</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8335550301984114</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.5660827948915674</v>
+      </c>
+      <c r="O25">
+        <v>0.9944081917659275</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_49/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.55922557119834</v>
+        <v>1.074674797241499</v>
       </c>
       <c r="C2">
-        <v>0.5963407872319806</v>
+        <v>0.1691300513318481</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5172353245935497</v>
+        <v>1.074395237401859</v>
       </c>
       <c r="F2">
-        <v>2.683729851672297</v>
+        <v>1.748772394985181</v>
       </c>
       <c r="G2">
-        <v>0.0007883624723595332</v>
+        <v>0.1623353271415482</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1942598523102959</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07286145979512781</v>
+        <v>0.01343702288811777</v>
       </c>
       <c r="K2">
-        <v>0.7074775716277557</v>
+        <v>1.14736337078304</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6396992459974555</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8800653065392083</v>
+        <v>0.6995887422677072</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.212465619682575</v>
+        <v>0.9368202848917235</v>
       </c>
       <c r="C3">
-        <v>0.5145825499426735</v>
+        <v>0.1539377560729349</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4525722494403794</v>
+        <v>0.9405726904067251</v>
       </c>
       <c r="F3">
-        <v>2.403065382329885</v>
+        <v>1.585039150497593</v>
       </c>
       <c r="G3">
-        <v>0.0007955753492790064</v>
+        <v>0.168025536413893</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2032996559473155</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06697381730509022</v>
+        <v>0.01406435007517537</v>
       </c>
       <c r="K3">
-        <v>0.6109862399681845</v>
+        <v>1.005313049247661</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6929885611080575</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8087267591591001</v>
+        <v>0.7302238855691456</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.00234998559506</v>
+        <v>0.8521718208811819</v>
       </c>
       <c r="C4">
-        <v>0.4649870248139791</v>
+        <v>0.1446197455031069</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4134637820230864</v>
+        <v>0.8593894712970638</v>
       </c>
       <c r="F4">
-        <v>2.236396101377665</v>
+        <v>1.487605691018544</v>
       </c>
       <c r="G4">
-        <v>0.0008001182935896792</v>
+        <v>0.1723043688026209</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2093402172663339</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06358726567991013</v>
+        <v>0.01450267119974935</v>
       </c>
       <c r="K4">
-        <v>0.5524989163152156</v>
+        <v>0.9180285437312818</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7272604503022926</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7675227091604384</v>
+        <v>0.7517165767394403</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.91732849109178</v>
+        <v>0.8176660896768055</v>
       </c>
       <c r="C5">
-        <v>0.4449033067274115</v>
+        <v>0.1408243024498432</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3976576168576216</v>
+        <v>0.8265256933647862</v>
       </c>
       <c r="F5">
-        <v>2.169757164943377</v>
+        <v>1.448619586508343</v>
       </c>
       <c r="G5">
-        <v>0.0008019996253228142</v>
+        <v>0.1742356996368457</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2119208514476725</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06225932804791512</v>
+        <v>0.01469404712087652</v>
       </c>
       <c r="K5">
-        <v>0.528827230618603</v>
+        <v>0.8824340438590355</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.741599714757589</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.751325942730503</v>
+        <v>0.7611201891547665</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.903244321345255</v>
+        <v>0.8119355222640934</v>
       </c>
       <c r="C6">
-        <v>0.4415753885029119</v>
+        <v>0.1401941532369051</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3950404003170362</v>
+        <v>0.8210811195451839</v>
       </c>
       <c r="F6">
-        <v>2.158765175050021</v>
+        <v>1.442187685967099</v>
       </c>
       <c r="G6">
-        <v>0.0008023138706269891</v>
+        <v>0.1745674549823519</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2123564361017891</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06204182434728978</v>
+        <v>0.01472657828997992</v>
       </c>
       <c r="K6">
-        <v>0.5249055850654685</v>
+        <v>0.8765218217970698</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7440028053212462</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7486707325589421</v>
+        <v>0.7627197856180743</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.001201044564596</v>
+        <v>0.8517065203074878</v>
       </c>
       <c r="C7">
-        <v>0.4647156867713136</v>
+        <v>0.1445685528985479</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4132501083583833</v>
+        <v>0.8589454083234926</v>
       </c>
       <c r="F7">
-        <v>2.235492382743246</v>
+        <v>1.487077077727463</v>
       </c>
       <c r="G7">
-        <v>0.00080014354253239</v>
+        <v>0.1723296680430018</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2093745439211574</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06356915240317207</v>
+        <v>0.01450520128929433</v>
       </c>
       <c r="K7">
-        <v>0.5521790501244439</v>
+        <v>0.9175486179664745</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7274523451567134</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7673019426155676</v>
+        <v>0.7518408226973747</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.439018956343602</v>
+        <v>1.027137708616834</v>
       </c>
       <c r="C8">
-        <v>0.5680092954559939</v>
+        <v>0.1638891271252874</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4948042078438064</v>
+        <v>1.028031159212631</v>
       </c>
       <c r="F8">
-        <v>2.585692111342752</v>
+        <v>1.69163626599267</v>
       </c>
       <c r="G8">
-        <v>0.0007908265994155575</v>
+        <v>0.164128379117507</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.1972724821063707</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07078061837882643</v>
+        <v>0.01364192162017375</v>
       </c>
       <c r="K8">
-        <v>0.6740320086985463</v>
+        <v>1.098392262964239</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.657740561996107</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8548914307145239</v>
+        <v>0.709576838377501</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.324813412490869</v>
+        <v>1.371592034625792</v>
       </c>
       <c r="C9">
-        <v>0.7766254236860561</v>
+        <v>0.2018994151986959</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.6603960911928084</v>
+        <v>1.368816262603758</v>
       </c>
       <c r="F9">
-        <v>3.324490319704495</v>
+        <v>2.120309059409962</v>
       </c>
       <c r="G9">
-        <v>0.0007733964841327488</v>
+        <v>0.1547368262840436</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.1776272177381415</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08700214398766093</v>
+        <v>0.01239960551512986</v>
       </c>
       <c r="K9">
-        <v>0.9204294613998343</v>
+        <v>1.452965186472568</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5341952413735545</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.050211466492811</v>
+        <v>0.6493785873576883</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.000092933844087</v>
+        <v>1.625662439713409</v>
       </c>
       <c r="C10">
-        <v>0.9355713038122815</v>
+        <v>0.2299673484242959</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.7869960570345995</v>
+        <v>1.626933392753514</v>
       </c>
       <c r="F10">
-        <v>3.910189299288135</v>
+        <v>2.456469148160849</v>
       </c>
       <c r="G10">
-        <v>0.0007610009444599462</v>
+        <v>0.1525967439632012</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.1659766290089593</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1006050996674404</v>
+        <v>0.01180440192679555</v>
       </c>
       <c r="K10">
-        <v>1.108223017950436</v>
+        <v>1.714140122665583</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4527556650317806</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.212654295156142</v>
+        <v>0.6210326502519905</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.314633575944072</v>
+        <v>1.741641506046705</v>
       </c>
       <c r="C11">
-        <v>1.009624990877654</v>
+        <v>0.2427835185137042</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.8460476142991809</v>
+        <v>1.746562483605246</v>
       </c>
       <c r="F11">
-        <v>4.188832020809741</v>
+        <v>2.615083417582213</v>
       </c>
       <c r="G11">
-        <v>0.0007554250849361032</v>
+        <v>0.1528190112766765</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.161350193507019</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1072670369597475</v>
+        <v>0.01161287950619361</v>
       </c>
       <c r="K11">
-        <v>1.195696523579471</v>
+        <v>1.833273726037788</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.418068695254231</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.291843114229465</v>
+        <v>0.6120757033612847</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.43499222659284</v>
+        <v>1.785633122513701</v>
       </c>
       <c r="C12">
-        <v>1.03796795459121</v>
+        <v>0.2476450158627728</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.8686560923022739</v>
+        <v>1.792228649136405</v>
       </c>
       <c r="F12">
-        <v>4.296378718486977</v>
+        <v>2.676063714604538</v>
       </c>
       <c r="G12">
-        <v>0.0007533202432014784</v>
+        <v>0.1530897858156948</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.1597014215113646</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.109868294907379</v>
+        <v>0.01155268771592333</v>
       </c>
       <c r="K12">
-        <v>1.229169323516345</v>
+        <v>1.878448254217318</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4053057231483166</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.322704093925182</v>
+        <v>0.6092944549425994</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.409011972302096</v>
+        <v>1.776155245283036</v>
       </c>
       <c r="C13">
-        <v>1.031849575975286</v>
+        <v>0.2465976129808922</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.8637753270426174</v>
+        <v>1.782376576519951</v>
       </c>
       <c r="F13">
-        <v>4.273121510510578</v>
+        <v>2.662888102641318</v>
       </c>
       <c r="G13">
-        <v>0.0007537733064073435</v>
+        <v>0.1530229253513298</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.160051820503476</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1093043945436989</v>
+        <v>0.01156508679390811</v>
       </c>
       <c r="K13">
-        <v>1.221943915826628</v>
+        <v>1.868716141927479</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4080373338185979</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.316016807893348</v>
+        <v>0.60986555135419</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.324509337847985</v>
+        <v>1.745259171203543</v>
       </c>
       <c r="C14">
-        <v>1.011950457815118</v>
+        <v>0.2431833021708911</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.847902448892583</v>
+        <v>1.750311859259256</v>
       </c>
       <c r="F14">
-        <v>4.197637543388254</v>
+        <v>2.62008134345399</v>
       </c>
       <c r="G14">
-        <v>0.0007552518008581043</v>
+        <v>0.1528374603937053</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1612124427583339</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1074794057508868</v>
+        <v>0.01160767466044987</v>
       </c>
       <c r="K14">
-        <v>1.198443030027221</v>
+        <v>1.83698894638718</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4170110145424726</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.29436385266726</v>
+        <v>0.6118343865106652</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.272917791476971</v>
+        <v>1.726344393965093</v>
       </c>
       <c r="C15">
-        <v>0.9998023671452643</v>
+        <v>0.2410930617824079</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.8382131926501017</v>
+        <v>1.730720340724588</v>
       </c>
       <c r="F15">
-        <v>4.151674700920552</v>
+        <v>2.593983376921301</v>
       </c>
       <c r="G15">
-        <v>0.0007561582054130371</v>
+        <v>0.152748612762764</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1619369870501615</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1063721058726799</v>
+        <v>0.01163539630830535</v>
       </c>
       <c r="K15">
-        <v>1.184095176195228</v>
+        <v>1.817563551498125</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4225571752541573</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.28121819766406</v>
+        <v>0.6131212377174364</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.979700749166682</v>
+        <v>1.61809227657119</v>
       </c>
       <c r="C16">
-        <v>0.9307709471171961</v>
+        <v>0.2291308627978026</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.7831693317501589</v>
+        <v>1.619163776726069</v>
       </c>
       <c r="F16">
-        <v>3.89224769454438</v>
+        <v>2.446226063702355</v>
       </c>
       <c r="G16">
-        <v>0.0007613664050673164</v>
+        <v>0.1526075090880212</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1662930587685665</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1001801187426992</v>
+        <v>0.01181859145512831</v>
       </c>
       <c r="K16">
-        <v>1.102552065190594</v>
+        <v>1.706362202238381</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4550727464327107</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.20759493897279</v>
+        <v>0.621700959831287</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.801833654577877</v>
+        <v>1.551796269209206</v>
       </c>
       <c r="C17">
-        <v>0.8889030973789431</v>
+        <v>0.2218056732413771</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.7498005261667373</v>
+        <v>1.551325881832085</v>
       </c>
       <c r="F17">
-        <v>3.73640878483144</v>
+        <v>2.357106867137674</v>
       </c>
       <c r="G17">
-        <v>0.0007645759457763486</v>
+        <v>0.1528373128050191</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1691422101264664</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.09650987486394769</v>
+        <v>0.01195191590377043</v>
       </c>
       <c r="K17">
-        <v>1.053088395670599</v>
+        <v>1.638236756384202</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4756465917836437</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.163860870595897</v>
+        <v>0.6280034175834288</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.700208456141866</v>
+        <v>1.513701338889717</v>
       </c>
       <c r="C18">
-        <v>0.8649830941679397</v>
+        <v>0.2175968378810467</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.7307426676806017</v>
+        <v>1.512512274014327</v>
       </c>
       <c r="F18">
-        <v>3.647904713129265</v>
+        <v>2.306377402563143</v>
       </c>
       <c r="G18">
-        <v>0.000766428074548972</v>
+        <v>0.1530811061311397</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1708439530815582</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.09444275509287081</v>
+        <v>0.01203599847612224</v>
       </c>
       <c r="K18">
-        <v>1.024827072998519</v>
+        <v>1.59908233218772</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.4877000906760234</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.139196822582036</v>
+        <v>0.6319962283126586</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.665911120852115</v>
+        <v>1.500808924544941</v>
       </c>
       <c r="C19">
-        <v>0.8569105016833589</v>
+        <v>0.2161725170458908</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.7243121450832462</v>
+        <v>1.499404482645815</v>
       </c>
       <c r="F19">
-        <v>3.618125068572823</v>
+        <v>2.289289384872333</v>
       </c>
       <c r="G19">
-        <v>0.0007670562882352982</v>
+        <v>0.153182391359131</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1714307670349342</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.09375011052323856</v>
+        <v>0.01206571055914196</v>
       </c>
       <c r="K19">
-        <v>1.015289168301763</v>
+        <v>1.585829962154918</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.4918180447271165</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.130927060214049</v>
+        <v>0.6334099981199728</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.820696299303108</v>
+        <v>1.558849679806372</v>
       </c>
       <c r="C20">
-        <v>0.8933429754194719</v>
+        <v>0.2225849849861561</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.7533384693761889</v>
+        <v>1.558525800411715</v>
       </c>
       <c r="F20">
-        <v>3.752879233164663</v>
+        <v>2.366538271147945</v>
       </c>
       <c r="G20">
-        <v>0.0007642336714152638</v>
+        <v>0.152801195202251</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.1688323499696409</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.09689596346383667</v>
+        <v>0.011936951068515</v>
       </c>
       <c r="K20">
-        <v>1.05833396841318</v>
+        <v>1.645485667858935</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4734334805540641</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.168464887023518</v>
+        <v>0.6272941332182285</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.349294263515901</v>
+        <v>1.754331992532343</v>
       </c>
       <c r="C21">
-        <v>1.017786733610762</v>
+        <v>0.2441859311892358</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.8525576767775931</v>
+        <v>1.759719731651757</v>
       </c>
       <c r="F21">
-        <v>4.219751521091808</v>
+        <v>2.632629029187314</v>
       </c>
       <c r="G21">
-        <v>0.0007548173725563483</v>
+        <v>0.1528867493354369</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.1608686875306162</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1080132282844346</v>
+        <v>0.01159482298317371</v>
       </c>
       <c r="K21">
-        <v>1.20533588339714</v>
+        <v>1.846306208385329</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4143648419030708</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.300699160818581</v>
+        <v>0.6112391522589178</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.702150938712919</v>
+        <v>1.882523630100223</v>
       </c>
       <c r="C22">
-        <v>1.100896871078731</v>
+        <v>0.2583524727377267</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.9188634600983505</v>
+        <v>1.893365763508655</v>
       </c>
       <c r="F22">
-        <v>4.536871869875085</v>
+        <v>2.811928752188521</v>
       </c>
       <c r="G22">
-        <v>0.0007487004746528912</v>
+        <v>0.1540379489056747</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.1562685358027309</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1157425927582736</v>
+        <v>0.01144360342060935</v>
       </c>
       <c r="K22">
-        <v>1.303471944457712</v>
+        <v>1.977918578370179</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.3779481667562088</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.392279093192258</v>
+        <v>0.604328040756684</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.513078747981183</v>
+        <v>1.814060409738573</v>
       </c>
       <c r="C23">
-        <v>1.056358664640868</v>
+        <v>0.2507865362562143</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.883327630507992</v>
+        <v>1.821822387196136</v>
       </c>
       <c r="F23">
-        <v>4.366420504117713</v>
+        <v>2.715704908075281</v>
       </c>
       <c r="G23">
-        <v>0.000751962661754422</v>
+        <v>0.1533181842839824</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.1586661957163358</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.111571058632137</v>
+        <v>0.01151735899520467</v>
       </c>
       <c r="K23">
-        <v>1.250886341776166</v>
+        <v>1.907636053348938</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.3971722240138451</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.342888023978517</v>
+        <v>0.6076733906224803</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.812166540246437</v>
+        <v>1.555660773183746</v>
       </c>
       <c r="C24">
-        <v>0.8913352417710882</v>
+        <v>0.2222326504207928</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.7517385745381517</v>
+        <v>1.55527013734536</v>
       </c>
       <c r="F24">
-        <v>3.745429569369833</v>
+        <v>2.362272763520465</v>
       </c>
       <c r="G24">
-        <v>0.0007643883919424002</v>
+        <v>0.1528171772195037</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.1689722397202971</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.09672127978736711</v>
+        <v>0.01194369358987579</v>
       </c>
       <c r="K24">
-        <v>1.055961900793292</v>
+        <v>1.642208399312807</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.4744333287445794</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.166381926775117</v>
+        <v>0.627613653256347</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.081505264427506</v>
+        <v>1.278288955583548</v>
       </c>
       <c r="C25">
-        <v>0.7193498089067418</v>
+        <v>0.1915969182454944</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.6148496763734244</v>
+        <v>1.275430086719879</v>
       </c>
       <c r="F25">
-        <v>3.117975811990334</v>
+        <v>2.000957913326488</v>
       </c>
       <c r="G25">
-        <v>0.0007780317101068584</v>
+        <v>0.1564935726005814</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.1824753438678215</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08235096213476112</v>
+        <v>0.01268320926851452</v>
       </c>
       <c r="K25">
-        <v>0.8527604841284671</v>
+        <v>1.356980631928849</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5660827948915674</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9944081917659275</v>
+        <v>0.6630316712568032</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_49/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.074674797241499</v>
+        <v>0.3635854824943578</v>
       </c>
       <c r="C2">
-        <v>0.1691300513318481</v>
+        <v>0.07369815540170066</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.074395237401859</v>
+        <v>0.7564522531944817</v>
       </c>
       <c r="F2">
-        <v>1.748772394985181</v>
+        <v>2.128429429425935</v>
       </c>
       <c r="G2">
-        <v>0.1623353271415482</v>
+        <v>0.3768400343502876</v>
       </c>
       <c r="H2">
-        <v>0.1942598523102959</v>
+        <v>0.5583961173340981</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01343702288811777</v>
+        <v>0.03536192482111566</v>
       </c>
       <c r="K2">
-        <v>1.14736337078304</v>
+        <v>0.3609811030691787</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6995887422677072</v>
+        <v>1.812212060673531</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9368202848917235</v>
+        <v>0.3200487342874112</v>
       </c>
       <c r="C3">
-        <v>0.1539377560729349</v>
+        <v>0.0685778009563478</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.9405726904067251</v>
+        <v>0.7239441850905024</v>
       </c>
       <c r="F3">
-        <v>1.585039150497593</v>
+        <v>2.103880541756794</v>
       </c>
       <c r="G3">
-        <v>0.168025536413893</v>
+        <v>0.3833712804624447</v>
       </c>
       <c r="H3">
-        <v>0.2032996559473155</v>
+        <v>0.5652742159223472</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01406435007517537</v>
+        <v>0.03591906208995432</v>
       </c>
       <c r="K3">
-        <v>1.005313049247661</v>
+        <v>0.3150504799169198</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.7302238855691456</v>
+        <v>1.840229098700959</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8521718208811819</v>
+        <v>0.2932565559408147</v>
       </c>
       <c r="C4">
-        <v>0.1446197455031069</v>
+        <v>0.06542564129104278</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.8593894712970638</v>
+        <v>0.7043218742967952</v>
       </c>
       <c r="F4">
-        <v>1.487605691018544</v>
+        <v>2.090136089265798</v>
       </c>
       <c r="G4">
-        <v>0.1723043688026209</v>
+        <v>0.3877223743540874</v>
       </c>
       <c r="H4">
-        <v>0.2093402172663339</v>
+        <v>0.5697775894499983</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01450267119974935</v>
+        <v>0.03628662435452945</v>
       </c>
       <c r="K4">
-        <v>0.9180285437312818</v>
+        <v>0.2867404327439544</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7517165767394403</v>
+        <v>1.858733383585957</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8176660896768055</v>
+        <v>0.2823240473414614</v>
       </c>
       <c r="C5">
-        <v>0.1408243024498432</v>
+        <v>0.06413914788585373</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.8265256933647862</v>
+        <v>0.6964105665113038</v>
       </c>
       <c r="F5">
-        <v>1.448619586508343</v>
+        <v>2.084868772607066</v>
       </c>
       <c r="G5">
-        <v>0.1742356996368457</v>
+        <v>0.3895810040181651</v>
       </c>
       <c r="H5">
-        <v>0.2119208514476725</v>
+        <v>0.5716831932477895</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01469404712087652</v>
+        <v>0.03644280568842451</v>
       </c>
       <c r="K5">
-        <v>0.8824340438590355</v>
+        <v>0.2751773546019649</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7611201891547665</v>
+        <v>1.866600909162898</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8119355222640934</v>
+        <v>0.280507859403599</v>
       </c>
       <c r="C6">
-        <v>0.1401941532369051</v>
+        <v>0.06392541133037355</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.8210811195451839</v>
+        <v>0.6951020305556739</v>
       </c>
       <c r="F6">
-        <v>1.442187685967099</v>
+        <v>2.084014278016639</v>
       </c>
       <c r="G6">
-        <v>0.1745674549823519</v>
+        <v>0.389894787777461</v>
       </c>
       <c r="H6">
-        <v>0.2123564361017891</v>
+        <v>0.5720038714471158</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01472657828997992</v>
+        <v>0.03646912553822457</v>
       </c>
       <c r="K6">
-        <v>0.8765218217970698</v>
+        <v>0.2732557362134571</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7627197856180743</v>
+        <v>1.86792703540781</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8517065203074878</v>
+        <v>0.2931091739730505</v>
       </c>
       <c r="C7">
-        <v>0.1445685528985479</v>
+        <v>0.06540829899162759</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.8589454083234926</v>
+        <v>0.7042148356910616</v>
       </c>
       <c r="F7">
-        <v>1.487077077727463</v>
+        <v>2.090063702009559</v>
       </c>
       <c r="G7">
-        <v>0.1723296680430018</v>
+        <v>0.3877470944599075</v>
       </c>
       <c r="H7">
-        <v>0.2093745439211574</v>
+        <v>0.5698030038898168</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01450520128929433</v>
+        <v>0.03628870478332935</v>
       </c>
       <c r="K7">
-        <v>0.9175486179664745</v>
+        <v>0.2865845953202495</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7518408226973747</v>
+        <v>1.858838164860714</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.027137708616834</v>
+        <v>0.3485869732317894</v>
       </c>
       <c r="C8">
-        <v>0.1638891271252874</v>
+        <v>0.07193443165657243</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.028031159212631</v>
+        <v>0.7451733581813329</v>
       </c>
       <c r="F8">
-        <v>1.69163626599267</v>
+        <v>2.119688927239508</v>
       </c>
       <c r="G8">
-        <v>0.164128379117507</v>
+        <v>0.3790211417601057</v>
       </c>
       <c r="H8">
-        <v>0.1972724821063707</v>
+        <v>0.5607095235422648</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01364192162017375</v>
+        <v>0.03554873196435082</v>
       </c>
       <c r="K8">
-        <v>1.098392262964239</v>
+        <v>0.345167181142898</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.709576838377501</v>
+        <v>1.821601899333899</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.371592034625792</v>
+        <v>0.4568728782523692</v>
       </c>
       <c r="C9">
-        <v>0.2018994151986959</v>
+        <v>0.08466257892695239</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.368816262603758</v>
+        <v>0.8281777008848934</v>
       </c>
       <c r="F9">
-        <v>2.120309059409962</v>
+        <v>2.188352435700722</v>
       </c>
       <c r="G9">
-        <v>0.1547368262840436</v>
+        <v>0.364622926147284</v>
       </c>
       <c r="H9">
-        <v>0.1776272177381415</v>
+        <v>0.5451009298165914</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01239960551512986</v>
+        <v>0.03430023309807417</v>
       </c>
       <c r="K9">
-        <v>1.452965186472568</v>
+        <v>0.4591585839508525</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.6493785873576883</v>
+        <v>1.758929665603446</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.625662439713409</v>
+        <v>0.5360945000430206</v>
       </c>
       <c r="C10">
-        <v>0.2299673484242959</v>
+        <v>0.09396682578915261</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.626933392753514</v>
+        <v>0.8908115162778643</v>
       </c>
       <c r="F10">
-        <v>2.456469148160849</v>
+        <v>2.245287502833946</v>
       </c>
       <c r="G10">
-        <v>0.1525967439632012</v>
+        <v>0.3557103764668383</v>
       </c>
       <c r="H10">
-        <v>0.1659766290089593</v>
+        <v>0.5349893646681423</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01180440192679555</v>
+        <v>0.03350704043295494</v>
       </c>
       <c r="K10">
-        <v>1.714140122665583</v>
+        <v>0.5423362223658046</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.6210326502519905</v>
+        <v>1.719218806427847</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.741641506046705</v>
+        <v>0.5720561591146804</v>
       </c>
       <c r="C11">
-        <v>0.2427835185137042</v>
+        <v>0.09818840476303592</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.746562483605246</v>
+        <v>0.91966710186054</v>
       </c>
       <c r="F11">
-        <v>2.615083417582213</v>
+        <v>2.272607857619732</v>
       </c>
       <c r="G11">
-        <v>0.1528190112766765</v>
+        <v>0.3520200448822521</v>
       </c>
       <c r="H11">
-        <v>0.161350193507019</v>
+        <v>0.5306839080260062</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01161287950619361</v>
+        <v>0.03317326354218153</v>
       </c>
       <c r="K11">
-        <v>1.833273726037788</v>
+        <v>0.5800459034477399</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6120757033612847</v>
+        <v>1.702534347360896</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.785633122513701</v>
+        <v>0.5856622633842221</v>
       </c>
       <c r="C12">
-        <v>0.2476450158627728</v>
+        <v>0.09978533241663001</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.792228649136405</v>
+        <v>0.9306463070849276</v>
       </c>
       <c r="F12">
-        <v>2.676063714604538</v>
+        <v>2.283158263628479</v>
       </c>
       <c r="G12">
-        <v>0.1530897858156948</v>
+        <v>0.3506751703616544</v>
       </c>
       <c r="H12">
-        <v>0.1597014215113646</v>
+        <v>0.5290958894107121</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.01155268771592333</v>
+        <v>0.03305077170241155</v>
       </c>
       <c r="K12">
-        <v>1.878448254217318</v>
+        <v>0.5943064751035649</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.6092944549425994</v>
+        <v>1.696415341544451</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.776155245283036</v>
+        <v>0.5827324822592459</v>
       </c>
       <c r="C13">
-        <v>0.2465976129808922</v>
+        <v>0.09944148258199448</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.782376576519951</v>
+        <v>0.9282794162028125</v>
       </c>
       <c r="F13">
-        <v>2.662888102641318</v>
+        <v>2.280876928585087</v>
       </c>
       <c r="G13">
-        <v>0.1530229253513298</v>
+        <v>0.3509624713086907</v>
       </c>
       <c r="H13">
-        <v>0.160051820503476</v>
+        <v>0.5294360128586248</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.01156508679390811</v>
+        <v>0.03307697876138427</v>
       </c>
       <c r="K13">
-        <v>1.868716141927479</v>
+        <v>0.5912360757955071</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.60986555135419</v>
+        <v>1.697724317738448</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.745259171203543</v>
+        <v>0.5731757823151327</v>
       </c>
       <c r="C14">
-        <v>0.2431833021708911</v>
+        <v>0.09831981954236824</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.750311859259256</v>
+        <v>0.9205693210772523</v>
       </c>
       <c r="F14">
-        <v>2.62008134345399</v>
+        <v>2.27347173864797</v>
       </c>
       <c r="G14">
-        <v>0.1528374603937053</v>
+        <v>0.3519083462893278</v>
       </c>
       <c r="H14">
-        <v>0.1612124427583339</v>
+        <v>0.5305524115153233</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.01160767466044987</v>
+        <v>0.03316310778770415</v>
       </c>
       <c r="K14">
-        <v>1.83698894638718</v>
+        <v>0.5812195200915369</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.6118343865106652</v>
+        <v>1.702026940847148</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.726344393965093</v>
+        <v>0.5673204686562769</v>
       </c>
       <c r="C15">
-        <v>0.2410930617824079</v>
+        <v>0.09763254470043137</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.730720340724588</v>
+        <v>0.9158534660005841</v>
       </c>
       <c r="F15">
-        <v>2.593983376921301</v>
+        <v>2.268962530608661</v>
       </c>
       <c r="G15">
-        <v>0.152748612762764</v>
+        <v>0.3524945754246289</v>
       </c>
       <c r="H15">
-        <v>0.1619369870501615</v>
+        <v>0.5312417561508695</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.01163539630830535</v>
+        <v>0.03321637285631063</v>
       </c>
       <c r="K15">
-        <v>1.817563551498125</v>
+        <v>0.5750815570760039</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.6131212377174364</v>
+        <v>1.704688358932259</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.61809227657119</v>
+        <v>0.5337427124259193</v>
       </c>
       <c r="C16">
-        <v>0.2291308627978026</v>
+        <v>0.09369070506595278</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.619163776726069</v>
+        <v>0.8889330433959088</v>
       </c>
       <c r="F16">
-        <v>2.446226063702355</v>
+        <v>2.243530679883378</v>
       </c>
       <c r="G16">
-        <v>0.1526075090880212</v>
+        <v>0.3559588929513282</v>
       </c>
       <c r="H16">
-        <v>0.1662930587685665</v>
+        <v>0.5352766625940433</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01181859145512831</v>
+        <v>0.03352939892161899</v>
       </c>
       <c r="K16">
-        <v>1.706362202238381</v>
+        <v>0.539869154811214</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.621700959831287</v>
+        <v>1.720336996660947</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.551796269209206</v>
+        <v>0.5131236625482813</v>
       </c>
       <c r="C17">
-        <v>0.2218056732413771</v>
+        <v>0.09126962227217916</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.551325881832085</v>
+        <v>0.8725112470175702</v>
       </c>
       <c r="F17">
-        <v>2.357106867137674</v>
+        <v>2.228293222749656</v>
       </c>
       <c r="G17">
-        <v>0.1528373128050191</v>
+        <v>0.3581775382698282</v>
       </c>
       <c r="H17">
-        <v>0.1691422101264664</v>
+        <v>0.5378273627093861</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.01195191590377043</v>
+        <v>0.03372836735695728</v>
       </c>
       <c r="K17">
-        <v>1.638236756384202</v>
+        <v>0.5182340518552451</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.6280034175834288</v>
+        <v>1.730290835536536</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.513701338889717</v>
+        <v>0.5012569613205073</v>
       </c>
       <c r="C18">
-        <v>0.2175968378810467</v>
+        <v>0.08987605381265951</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.512512274014327</v>
+        <v>0.8631000451603938</v>
       </c>
       <c r="F18">
-        <v>2.306377402563143</v>
+        <v>2.219662693845336</v>
       </c>
       <c r="G18">
-        <v>0.1530811061311397</v>
+        <v>0.3594878952716201</v>
       </c>
       <c r="H18">
-        <v>0.1708439530815582</v>
+        <v>0.5393221608124463</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.01203599847612224</v>
+        <v>0.03384535411046663</v>
       </c>
       <c r="K18">
-        <v>1.59908233218772</v>
+        <v>0.5057780909561984</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.6319962283126586</v>
+        <v>1.736145898568921</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.500808924544941</v>
+        <v>0.4972378924952352</v>
       </c>
       <c r="C19">
-        <v>0.2161725170458908</v>
+        <v>0.08940404284284398</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.499404482645815</v>
+        <v>0.8599194445673106</v>
       </c>
       <c r="F19">
-        <v>2.289289384872333</v>
+        <v>2.216763483693654</v>
       </c>
       <c r="G19">
-        <v>0.153182391359131</v>
+        <v>0.3599374353497353</v>
       </c>
       <c r="H19">
-        <v>0.1714307670349342</v>
+        <v>0.5398330306099055</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.01206571055914196</v>
+        <v>0.03388540060734435</v>
       </c>
       <c r="K19">
-        <v>1.585829962154918</v>
+        <v>0.5015586770550726</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.6334099981199728</v>
+        <v>1.73815061181746</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.558849679806372</v>
+        <v>0.5153193431911518</v>
       </c>
       <c r="C20">
-        <v>0.2225849849861561</v>
+        <v>0.09152745765995007</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.558525800411715</v>
+        <v>0.8742558376652312</v>
       </c>
       <c r="F20">
-        <v>2.366538271147945</v>
+        <v>2.229901439523587</v>
       </c>
       <c r="G20">
-        <v>0.152801195202251</v>
+        <v>0.3579378132044511</v>
       </c>
       <c r="H20">
-        <v>0.1688323499696409</v>
+        <v>0.5375529689111502</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.011936951068515</v>
+        <v>0.03370692330116221</v>
       </c>
       <c r="K20">
-        <v>1.645485667858935</v>
+        <v>0.520538395710787</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.6272941332182285</v>
+        <v>1.72921778639892</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.754331992532343</v>
+        <v>0.5759831430148381</v>
       </c>
       <c r="C21">
-        <v>0.2441859311892358</v>
+        <v>0.0986493260213166</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.759719731651757</v>
+        <v>0.9228325456229243</v>
       </c>
       <c r="F21">
-        <v>2.632629029187314</v>
+        <v>2.275641260414773</v>
       </c>
       <c r="G21">
-        <v>0.1528867493354369</v>
+        <v>0.3516290912335123</v>
       </c>
       <c r="H21">
-        <v>0.1608686875306162</v>
+        <v>0.5302233481071994</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.01159482298317371</v>
+        <v>0.03313770360023582</v>
       </c>
       <c r="K21">
-        <v>1.846306208385329</v>
+        <v>0.5841621547354805</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.6112391522589178</v>
+        <v>1.70075774984879</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.882523630100223</v>
+        <v>0.6155613336171371</v>
       </c>
       <c r="C22">
-        <v>0.2583524727377267</v>
+        <v>0.1032939595275622</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.893365763508655</v>
+        <v>0.9548846198292438</v>
       </c>
       <c r="F22">
-        <v>2.811928752188521</v>
+        <v>2.306728749246247</v>
       </c>
       <c r="G22">
-        <v>0.1540379489056747</v>
+        <v>0.3478125227896243</v>
       </c>
       <c r="H22">
-        <v>0.1562685358027309</v>
+        <v>0.5256799670268322</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.01144360342060935</v>
+        <v>0.03278843654686803</v>
       </c>
       <c r="K22">
-        <v>1.977918578370179</v>
+        <v>0.6256312817508558</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.604328040756684</v>
+        <v>1.683317870648779</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.814060409738573</v>
+        <v>0.594444286302803</v>
       </c>
       <c r="C23">
-        <v>0.2507865362562143</v>
+        <v>0.1008159766902992</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.821822387196136</v>
+        <v>0.9377499721815639</v>
       </c>
       <c r="F23">
-        <v>2.715704908075281</v>
+        <v>2.290027352121882</v>
       </c>
       <c r="G23">
-        <v>0.1533181842839824</v>
+        <v>0.3498213734766651</v>
       </c>
       <c r="H23">
-        <v>0.1586661957163358</v>
+        <v>0.5280822464790873</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.01151735899520467</v>
+        <v>0.03297276113007364</v>
       </c>
       <c r="K23">
-        <v>1.907636053348938</v>
+        <v>0.603509009557115</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.6076733906224803</v>
+        <v>1.692519499428684</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.555660773183746</v>
+        <v>0.5143267149586848</v>
       </c>
       <c r="C24">
-        <v>0.2222326504207928</v>
+        <v>0.0914108954288082</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.55527013734536</v>
+        <v>0.873467015075164</v>
       </c>
       <c r="F24">
-        <v>2.362272763520465</v>
+        <v>2.229173960784294</v>
       </c>
       <c r="G24">
-        <v>0.1528171772195037</v>
+        <v>0.3580460844350313</v>
       </c>
       <c r="H24">
-        <v>0.1689722397202971</v>
+        <v>0.5376769339885783</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.01194369358987579</v>
+        <v>0.03371661007025573</v>
       </c>
       <c r="K24">
-        <v>1.642208399312807</v>
+        <v>0.5194966567762549</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.627613653256347</v>
+        <v>1.729702499321476</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.278288955583548</v>
+        <v>0.4276357022296509</v>
       </c>
       <c r="C25">
-        <v>0.1915969182454944</v>
+        <v>0.08122721640663144</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.275430086719879</v>
+        <v>0.8054339829545398</v>
       </c>
       <c r="F25">
-        <v>2.000957913326488</v>
+        <v>2.168641050033258</v>
       </c>
       <c r="G25">
-        <v>0.1564935726005814</v>
+        <v>0.3682263324518829</v>
       </c>
       <c r="H25">
-        <v>0.1824753438678215</v>
+        <v>0.5490853617166849</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.01268320926851452</v>
+        <v>0.034616237322874</v>
       </c>
       <c r="K25">
-        <v>1.356980631928849</v>
+        <v>0.4284191648848434</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6630316712568032</v>
+        <v>1.774773653076849</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_49/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3635854824943578</v>
+        <v>1.074674797241528</v>
       </c>
       <c r="C2">
-        <v>0.07369815540170066</v>
+        <v>0.1691300513323313</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.7564522531944817</v>
+        <v>1.074395237401859</v>
       </c>
       <c r="F2">
-        <v>2.128429429425935</v>
+        <v>1.748772394985195</v>
       </c>
       <c r="G2">
-        <v>0.3768400343502876</v>
+        <v>0.162335327141534</v>
       </c>
       <c r="H2">
-        <v>0.5583961173340981</v>
+        <v>0.1942598523102887</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03536192482111566</v>
+        <v>0.01343702288806448</v>
       </c>
       <c r="K2">
-        <v>0.3609811030691787</v>
+        <v>1.147363370783211</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.812212060673531</v>
+        <v>0.699588742267693</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3200487342874112</v>
+        <v>0.9368202848916951</v>
       </c>
       <c r="C3">
-        <v>0.0685778009563478</v>
+        <v>0.1539377560729633</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.7239441850905024</v>
+        <v>0.9405726904066967</v>
       </c>
       <c r="F3">
-        <v>2.103880541756794</v>
+        <v>1.585039150497593</v>
       </c>
       <c r="G3">
-        <v>0.3833712804624447</v>
+        <v>0.1680255364138894</v>
       </c>
       <c r="H3">
-        <v>0.5652742159223472</v>
+        <v>0.203299655947319</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03591906208995432</v>
+        <v>0.01406435007517448</v>
       </c>
       <c r="K3">
-        <v>0.3150504799169198</v>
+        <v>1.005313049247604</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.840229098700959</v>
+        <v>0.7302238855691101</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2932565559408147</v>
+        <v>0.8521718208810682</v>
       </c>
       <c r="C4">
-        <v>0.06542564129104278</v>
+        <v>0.1446197455026095</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.7043218742967952</v>
+        <v>0.8593894712970638</v>
       </c>
       <c r="F4">
-        <v>2.090136089265798</v>
+        <v>1.487605691018544</v>
       </c>
       <c r="G4">
-        <v>0.3877223743540874</v>
+        <v>0.1723043688026245</v>
       </c>
       <c r="H4">
-        <v>0.5697775894499983</v>
+        <v>0.2093402172663339</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03628662435452945</v>
+        <v>0.01450267119962678</v>
       </c>
       <c r="K4">
-        <v>0.2867404327439544</v>
+        <v>0.9180285437311397</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.858733383585957</v>
+        <v>0.751716576739426</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2823240473414614</v>
+        <v>0.8176660896768055</v>
       </c>
       <c r="C5">
-        <v>0.06413914788585373</v>
+        <v>0.140824302449829</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6964105665113038</v>
+        <v>0.8265256933647862</v>
       </c>
       <c r="F5">
-        <v>2.084868772607066</v>
+        <v>1.448619586508343</v>
       </c>
       <c r="G5">
-        <v>0.3895810040181651</v>
+        <v>0.1742356996368351</v>
       </c>
       <c r="H5">
-        <v>0.5716831932477895</v>
+        <v>0.2119208514475552</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03644280568842451</v>
+        <v>0.0146940471209156</v>
       </c>
       <c r="K5">
-        <v>0.2751773546019649</v>
+        <v>0.8824340438589218</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.866600909162898</v>
+        <v>0.7611201891547523</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.280507859403599</v>
+        <v>0.8119355222640365</v>
       </c>
       <c r="C6">
-        <v>0.06392541133037355</v>
+        <v>0.1401941532373598</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.6951020305556739</v>
+        <v>0.8210811195452123</v>
       </c>
       <c r="F6">
-        <v>2.084014278016639</v>
+        <v>1.442187685967085</v>
       </c>
       <c r="G6">
-        <v>0.389894787777461</v>
+        <v>0.1745674549823413</v>
       </c>
       <c r="H6">
-        <v>0.5720038714471158</v>
+        <v>0.2123564361016754</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03646912553822457</v>
+        <v>0.01472657829003055</v>
       </c>
       <c r="K6">
-        <v>0.2732557362134571</v>
+        <v>0.8765218217970983</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.86792703540781</v>
+        <v>0.7627197856180672</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2931091739730505</v>
+        <v>0.8517065203074878</v>
       </c>
       <c r="C7">
-        <v>0.06540829899162759</v>
+        <v>0.1445685528985763</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.7042148356910616</v>
+        <v>0.8589454083234784</v>
       </c>
       <c r="F7">
-        <v>2.090063702009559</v>
+        <v>1.487077077727449</v>
       </c>
       <c r="G7">
-        <v>0.3877470944599075</v>
+        <v>0.1723296680430018</v>
       </c>
       <c r="H7">
-        <v>0.5698030038898168</v>
+        <v>0.2093745439211538</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03628870478332935</v>
+        <v>0.01450520128929078</v>
       </c>
       <c r="K7">
-        <v>0.2865845953202495</v>
+        <v>0.9175486179665882</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.858838164860714</v>
+        <v>0.7518408226973463</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3485869732317894</v>
+        <v>1.02713770861692</v>
       </c>
       <c r="C8">
-        <v>0.07193443165657243</v>
+        <v>0.1638891271255147</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.7451733581813329</v>
+        <v>1.028031159212659</v>
       </c>
       <c r="F8">
-        <v>2.119688927239508</v>
+        <v>1.691636265992685</v>
       </c>
       <c r="G8">
-        <v>0.3790211417601057</v>
+        <v>0.164128379117507</v>
       </c>
       <c r="H8">
-        <v>0.5607095235422648</v>
+        <v>0.1972724821063778</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03554873196435082</v>
+        <v>0.01364192162012223</v>
       </c>
       <c r="K8">
-        <v>0.345167181142898</v>
+        <v>1.098392262964239</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.821601899333899</v>
+        <v>0.709576838377501</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4568728782523692</v>
+        <v>1.371592034625792</v>
       </c>
       <c r="C9">
-        <v>0.08466257892695239</v>
+        <v>0.2018994151987101</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.8281777008848934</v>
+        <v>1.368816262603758</v>
       </c>
       <c r="F9">
-        <v>2.188352435700722</v>
+        <v>2.120309059409948</v>
       </c>
       <c r="G9">
-        <v>0.364622926147284</v>
+        <v>0.1547368262840507</v>
       </c>
       <c r="H9">
-        <v>0.5451009298165914</v>
+        <v>0.1776272177382623</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03430023309807417</v>
+        <v>0.01239960551524177</v>
       </c>
       <c r="K9">
-        <v>0.4591585839508525</v>
+        <v>1.452965186472568</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.758929665603446</v>
+        <v>0.6493785873577025</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5360945000430206</v>
+        <v>1.625662439713437</v>
       </c>
       <c r="C10">
-        <v>0.09396682578915261</v>
+        <v>0.2299673484243385</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.8908115162778643</v>
+        <v>1.626933392753514</v>
       </c>
       <c r="F10">
-        <v>2.245287502833946</v>
+        <v>2.456469148160849</v>
       </c>
       <c r="G10">
-        <v>0.3557103764668383</v>
+        <v>0.1525967439631373</v>
       </c>
       <c r="H10">
-        <v>0.5349893646681423</v>
+        <v>0.1659766290089593</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03350704043295494</v>
+        <v>0.01180440192679555</v>
       </c>
       <c r="K10">
-        <v>0.5423362223658046</v>
+        <v>1.714140122665697</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.719218806427847</v>
+        <v>0.6210326502519763</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5720561591146804</v>
+        <v>1.74164150604679</v>
       </c>
       <c r="C11">
-        <v>0.09818840476303592</v>
+        <v>0.2427835185135052</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.91966710186054</v>
+        <v>1.746562483605231</v>
       </c>
       <c r="F11">
-        <v>2.272607857619732</v>
+        <v>2.615083417582241</v>
       </c>
       <c r="G11">
-        <v>0.3520200448822521</v>
+        <v>0.1528190112766268</v>
       </c>
       <c r="H11">
-        <v>0.5306839080260062</v>
+        <v>0.1613501935071255</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03317326354218153</v>
+        <v>0.01161287950617762</v>
       </c>
       <c r="K11">
-        <v>0.5800459034477399</v>
+        <v>1.833273726037646</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.702534347360896</v>
+        <v>0.6120757033612136</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5856622633842221</v>
+        <v>1.785633122513616</v>
       </c>
       <c r="C12">
-        <v>0.09978533241663001</v>
+        <v>0.2476450158627159</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.9306463070849276</v>
+        <v>1.792228649136391</v>
       </c>
       <c r="F12">
-        <v>2.283158263628479</v>
+        <v>2.67606371460451</v>
       </c>
       <c r="G12">
-        <v>0.3506751703616544</v>
+        <v>0.1530897858156948</v>
       </c>
       <c r="H12">
-        <v>0.5290958894107121</v>
+        <v>0.1597014215113646</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03305077170241155</v>
+        <v>0.01155268771591267</v>
       </c>
       <c r="K12">
-        <v>0.5943064751035649</v>
+        <v>1.87844825421746</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.696415341544451</v>
+        <v>0.6092944549425852</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5827324822592459</v>
+        <v>1.776155245283064</v>
       </c>
       <c r="C13">
-        <v>0.09944148258199448</v>
+        <v>0.2465976129808922</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.9282794162028125</v>
+        <v>1.782376576519923</v>
       </c>
       <c r="F13">
-        <v>2.280876928585087</v>
+        <v>2.662888102641318</v>
       </c>
       <c r="G13">
-        <v>0.3509624713086907</v>
+        <v>0.1530229253513227</v>
       </c>
       <c r="H13">
-        <v>0.5294360128586248</v>
+        <v>0.160051820503476</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.03307697876138427</v>
+        <v>0.01156508679403245</v>
       </c>
       <c r="K13">
-        <v>0.5912360757955071</v>
+        <v>1.868716141927564</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.697724317738448</v>
+        <v>0.60986555135419</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5731757823151327</v>
+        <v>1.745259171203486</v>
       </c>
       <c r="C14">
-        <v>0.09831981954236824</v>
+        <v>0.2431833021708769</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.9205693210772523</v>
+        <v>1.750311859259227</v>
       </c>
       <c r="F14">
-        <v>2.27347173864797</v>
+        <v>2.62008134345399</v>
       </c>
       <c r="G14">
-        <v>0.3519083462893278</v>
+        <v>0.1528374603936982</v>
       </c>
       <c r="H14">
-        <v>0.5305524115153233</v>
+        <v>0.1612124427583339</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03316310778770415</v>
+        <v>0.01160767466038948</v>
       </c>
       <c r="K14">
-        <v>0.5812195200915369</v>
+        <v>1.836988946387265</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.702026940847148</v>
+        <v>0.6118343865106652</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5673204686562769</v>
+        <v>1.726344393965121</v>
       </c>
       <c r="C15">
-        <v>0.09763254470043137</v>
+        <v>0.2410930617824363</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.9158534660005841</v>
+        <v>1.730720340724588</v>
       </c>
       <c r="F15">
-        <v>2.268962530608661</v>
+        <v>2.593983376921301</v>
       </c>
       <c r="G15">
-        <v>0.3524945754246289</v>
+        <v>0.1527486127628848</v>
       </c>
       <c r="H15">
-        <v>0.5312417561508695</v>
+        <v>0.1619369870501544</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03321637285631063</v>
+        <v>0.01163539630830535</v>
       </c>
       <c r="K15">
-        <v>0.5750815570760039</v>
+        <v>1.81756355149821</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.704688358932259</v>
+        <v>0.6131212377174222</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5337427124259193</v>
+        <v>1.618092276571105</v>
       </c>
       <c r="C16">
-        <v>0.09369070506595278</v>
+        <v>0.2291308627973194</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.8889330433959088</v>
+        <v>1.61916377672604</v>
       </c>
       <c r="F16">
-        <v>2.243530679883378</v>
+        <v>2.446226063702355</v>
       </c>
       <c r="G16">
-        <v>0.3559588929513282</v>
+        <v>0.1526075090879075</v>
       </c>
       <c r="H16">
-        <v>0.5352766625940433</v>
+        <v>0.1662930587686873</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03352939892161899</v>
+        <v>0.01181859145512476</v>
       </c>
       <c r="K16">
-        <v>0.539869154811214</v>
+        <v>1.706362202238353</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.720336996660947</v>
+        <v>0.621700959831287</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5131236625482813</v>
+        <v>1.551796269209262</v>
       </c>
       <c r="C17">
-        <v>0.09126962227217916</v>
+        <v>0.2218056732414055</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.8725112470175702</v>
+        <v>1.551325881832071</v>
       </c>
       <c r="F17">
-        <v>2.228293222749656</v>
+        <v>2.357106867137674</v>
       </c>
       <c r="G17">
-        <v>0.3581775382698282</v>
+        <v>0.152837312805147</v>
       </c>
       <c r="H17">
-        <v>0.5378273627093861</v>
+        <v>0.1691422101264664</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03372836735695728</v>
+        <v>0.01195191590366029</v>
       </c>
       <c r="K17">
-        <v>0.5182340518552451</v>
+        <v>1.638236756384288</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.730290835536536</v>
+        <v>0.628003417583443</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5012569613205073</v>
+        <v>1.513701338889831</v>
       </c>
       <c r="C18">
-        <v>0.08987605381265951</v>
+        <v>0.2175968378812314</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.8631000451603938</v>
+        <v>1.512512274014256</v>
       </c>
       <c r="F18">
-        <v>2.219662693845336</v>
+        <v>2.306377402563143</v>
       </c>
       <c r="G18">
-        <v>0.3594878952716201</v>
+        <v>0.1530811061311326</v>
       </c>
       <c r="H18">
-        <v>0.5393221608124463</v>
+        <v>0.1708439530815511</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03384535411046663</v>
+        <v>0.01203599847612402</v>
       </c>
       <c r="K18">
-        <v>0.5057780909561984</v>
+        <v>1.599082332187834</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.736145898568921</v>
+        <v>0.6319962283126443</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4972378924952352</v>
+        <v>1.50080892454497</v>
       </c>
       <c r="C19">
-        <v>0.08940404284284398</v>
+        <v>0.2161725170461466</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.8599194445673106</v>
+        <v>1.499404482645787</v>
       </c>
       <c r="F19">
-        <v>2.216763483693654</v>
+        <v>2.289289384872333</v>
       </c>
       <c r="G19">
-        <v>0.3599374353497353</v>
+        <v>0.153182391359131</v>
       </c>
       <c r="H19">
-        <v>0.5398330306099055</v>
+        <v>0.1714307670349342</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.03388540060734435</v>
+        <v>0.01206571055913841</v>
       </c>
       <c r="K19">
-        <v>0.5015586770550726</v>
+        <v>1.585829962154918</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.73815061181746</v>
+        <v>0.6334099981199586</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5153193431911518</v>
+        <v>1.5588496798064</v>
       </c>
       <c r="C20">
-        <v>0.09152745765995007</v>
+        <v>0.2225849849859713</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.8742558376652312</v>
+        <v>1.558525800411715</v>
       </c>
       <c r="F20">
-        <v>2.229901439523587</v>
+        <v>2.366538271147945</v>
       </c>
       <c r="G20">
-        <v>0.3579378132044511</v>
+        <v>0.1528011952023718</v>
       </c>
       <c r="H20">
-        <v>0.5375529689111502</v>
+        <v>0.1688323499695201</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.03370692330116221</v>
+        <v>0.0119369510684546</v>
       </c>
       <c r="K20">
-        <v>0.520538395710787</v>
+        <v>1.645485667858793</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.72921778639892</v>
+        <v>0.6272941332181574</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5759831430148381</v>
+        <v>1.754331992532371</v>
       </c>
       <c r="C21">
-        <v>0.0986493260213166</v>
+        <v>0.2441859311889658</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.9228325456229243</v>
+        <v>1.759719731651728</v>
       </c>
       <c r="F21">
-        <v>2.275641260414773</v>
+        <v>2.632629029187314</v>
       </c>
       <c r="G21">
-        <v>0.3516290912335123</v>
+        <v>0.15288674933538</v>
       </c>
       <c r="H21">
-        <v>0.5302233481071994</v>
+        <v>0.1608686875304954</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.03313770360023582</v>
+        <v>0.01159482298316306</v>
       </c>
       <c r="K21">
-        <v>0.5841621547354805</v>
+        <v>1.846306208385329</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.70075774984879</v>
+        <v>0.6112391522589178</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6155613336171371</v>
+        <v>1.882523630100252</v>
       </c>
       <c r="C22">
-        <v>0.1032939595275622</v>
+        <v>0.2583524727377409</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.9548846198292438</v>
+        <v>1.893365763508669</v>
       </c>
       <c r="F22">
-        <v>2.306728749246247</v>
+        <v>2.81192875218855</v>
       </c>
       <c r="G22">
-        <v>0.3478125227896243</v>
+        <v>0.1540379489056747</v>
       </c>
       <c r="H22">
-        <v>0.5256799670268322</v>
+        <v>0.156268535802738</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03278843654686803</v>
+        <v>0.01144360342060935</v>
       </c>
       <c r="K22">
-        <v>0.6256312817508558</v>
+        <v>1.977918578370208</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.683317870648779</v>
+        <v>0.604328040756684</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.594444286302803</v>
+        <v>1.814060409738715</v>
       </c>
       <c r="C23">
-        <v>0.1008159766902992</v>
+        <v>0.2507865362562143</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.9377499721815639</v>
+        <v>1.82182238719615</v>
       </c>
       <c r="F23">
-        <v>2.290027352121882</v>
+        <v>2.715704908075253</v>
       </c>
       <c r="G23">
-        <v>0.3498213734766651</v>
+        <v>0.1533181842839895</v>
       </c>
       <c r="H23">
-        <v>0.5280822464790873</v>
+        <v>0.1586661957163358</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.03297276113007364</v>
+        <v>0.01151735899513717</v>
       </c>
       <c r="K23">
-        <v>0.603509009557115</v>
+        <v>1.907636053348881</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.692519499428684</v>
+        <v>0.6076733906224234</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5143267149586848</v>
+        <v>1.555660773183746</v>
       </c>
       <c r="C24">
-        <v>0.0914108954288082</v>
+        <v>0.2222326504210201</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.873467015075164</v>
+        <v>1.555270137345403</v>
       </c>
       <c r="F24">
-        <v>2.229173960784294</v>
+        <v>2.362272763520465</v>
       </c>
       <c r="G24">
-        <v>0.3580460844350313</v>
+        <v>0.1528171772194398</v>
       </c>
       <c r="H24">
-        <v>0.5376769339885783</v>
+        <v>0.1689722397202971</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03371661007025573</v>
+        <v>0.01194369358986869</v>
       </c>
       <c r="K24">
-        <v>0.5194966567762549</v>
+        <v>1.642208399312693</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.729702499321476</v>
+        <v>0.6276136532563328</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4276357022296509</v>
+        <v>1.278288955583577</v>
       </c>
       <c r="C25">
-        <v>0.08122721640663144</v>
+        <v>0.191596918245267</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.8054339829545398</v>
+        <v>1.275430086719879</v>
       </c>
       <c r="F25">
-        <v>2.168641050033258</v>
+        <v>2.000957913326488</v>
       </c>
       <c r="G25">
-        <v>0.3682263324518829</v>
+        <v>0.1564935726005956</v>
       </c>
       <c r="H25">
-        <v>0.5490853617166849</v>
+        <v>0.1824753438678073</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.034616237322874</v>
+        <v>0.01268320926846123</v>
       </c>
       <c r="K25">
-        <v>0.4284191648848434</v>
+        <v>1.356980631928764</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.774773653076849</v>
+        <v>0.6630316712568032</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_49/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.074674797241528</v>
+        <v>0.8255699994245447</v>
       </c>
       <c r="C2">
-        <v>0.1691300513323313</v>
+        <v>0.16274293655826</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.074395237401859</v>
+        <v>1.08970070053735</v>
       </c>
       <c r="F2">
-        <v>1.748772394985195</v>
+        <v>1.945160772063005</v>
       </c>
       <c r="G2">
-        <v>0.162335327141534</v>
+        <v>0.2073917936442911</v>
       </c>
       <c r="H2">
-        <v>0.1942598523102887</v>
+        <v>0.0003426346057056051</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0008330706094246132</v>
       </c>
       <c r="J2">
-        <v>0.01343702288806448</v>
+        <v>0.2235313711298303</v>
       </c>
       <c r="K2">
-        <v>1.147363370783211</v>
+        <v>0.197531465414853</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0383978960443212</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.907777686552663</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.699588742267693</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.7534383429340821</v>
+      </c>
+      <c r="Q2">
+        <v>0.8561279210460384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9368202848916951</v>
+        <v>0.7196648964464316</v>
       </c>
       <c r="C3">
-        <v>0.1539377560729633</v>
+        <v>0.1468187071509135</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.9405726904066967</v>
+        <v>0.9601191826776869</v>
       </c>
       <c r="F3">
-        <v>1.585039150497593</v>
+        <v>1.763223528067826</v>
       </c>
       <c r="G3">
-        <v>0.1680255364138894</v>
+        <v>0.2042514887061131</v>
       </c>
       <c r="H3">
-        <v>0.203299655947319</v>
+        <v>6.010670526634954E-06</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0005317021481103801</v>
       </c>
       <c r="J3">
-        <v>0.01406435007517448</v>
+        <v>0.2257840915746812</v>
       </c>
       <c r="K3">
-        <v>1.005313049247604</v>
+        <v>0.2023802872607146</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.03518380714682756</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7944965941917985</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.7302238855691101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.7658179992694301</v>
+      </c>
+      <c r="Q3">
+        <v>0.8539519664911097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8521718208810682</v>
+        <v>0.6542357316432117</v>
       </c>
       <c r="C4">
-        <v>0.1446197455026095</v>
+        <v>0.1371511615024872</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.8593894712970638</v>
+        <v>0.8807038469239359</v>
       </c>
       <c r="F4">
-        <v>1.487605691018544</v>
+        <v>1.652186778958139</v>
       </c>
       <c r="G4">
-        <v>0.1723043688026245</v>
+        <v>0.202585124648742</v>
       </c>
       <c r="H4">
-        <v>0.2093402172663339</v>
+        <v>6.046021174066496E-05</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0004502365932412822</v>
       </c>
       <c r="J4">
-        <v>0.01450267119962678</v>
+        <v>0.2273560181535856</v>
       </c>
       <c r="K4">
-        <v>0.9180285437311397</v>
+        <v>0.2055416904213843</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.03319982138323141</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7247845463482321</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.751716576739426</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.7740203642125039</v>
+      </c>
+      <c r="Q4">
+        <v>0.8535603433725498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8176660896768055</v>
+        <v>0.6268573165283726</v>
       </c>
       <c r="C5">
-        <v>0.140824302449829</v>
+        <v>0.1335555368403192</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.8265256933647862</v>
+        <v>0.8486415089284094</v>
       </c>
       <c r="F5">
-        <v>1.448619586508343</v>
+        <v>1.606720491213892</v>
       </c>
       <c r="G5">
-        <v>0.1742356996368351</v>
+        <v>0.201751558449736</v>
       </c>
       <c r="H5">
-        <v>0.2119208514475552</v>
+        <v>0.0001450263307414268</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.000505887515406922</v>
       </c>
       <c r="J5">
-        <v>0.0146940471209156</v>
+        <v>0.2279277667542772</v>
       </c>
       <c r="K5">
-        <v>0.8824340438589218</v>
+        <v>0.2067079461048884</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.03237192028483626</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6963550930565532</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7611201891547523</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.7777053736080717</v>
+      </c>
+      <c r="Q5">
+        <v>0.8529273208069128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8119355222640365</v>
+        <v>0.6215532923681906</v>
       </c>
       <c r="C6">
-        <v>0.1401941532373598</v>
+        <v>0.1333511786182697</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.8210811195452123</v>
+        <v>0.8436526540789373</v>
       </c>
       <c r="F6">
-        <v>1.442187685967085</v>
+        <v>1.598728914319153</v>
       </c>
       <c r="G6">
-        <v>0.1745674549823413</v>
+        <v>0.2013514375160668</v>
       </c>
       <c r="H6">
-        <v>0.2123564361016754</v>
+        <v>0.0001629186695857321</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0006023517313540339</v>
       </c>
       <c r="J6">
-        <v>0.01472657829003055</v>
+        <v>0.2278849406642891</v>
       </c>
       <c r="K6">
-        <v>0.8765218217970983</v>
+        <v>0.206700498657872</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.03221487246505816</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6916578029899796</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7627197856180672</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.7785664467252076</v>
+      </c>
+      <c r="Q6">
+        <v>0.8519784766342724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8517065203074878</v>
+        <v>0.6518067612110769</v>
       </c>
       <c r="C7">
-        <v>0.1445685528985763</v>
+        <v>0.1381733067090494</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.8589454083234784</v>
+        <v>0.8811843597040081</v>
       </c>
       <c r="F7">
-        <v>1.487077077727449</v>
+        <v>1.650341975571777</v>
       </c>
       <c r="G7">
-        <v>0.1723296680430018</v>
+        <v>0.201849171077356</v>
       </c>
       <c r="H7">
-        <v>0.2093745439211538</v>
+        <v>6.16481538826541E-05</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0006706517788357402</v>
       </c>
       <c r="J7">
-        <v>0.01450520128929078</v>
+        <v>0.2269806939133403</v>
       </c>
       <c r="K7">
-        <v>0.9175486179665882</v>
+        <v>0.2050018884389608</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.03313573348566834</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7244725659765976</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7518408226973463</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.7747374747978384</v>
+      </c>
+      <c r="Q7">
+        <v>0.8512124609056286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02713770861692</v>
+        <v>0.7863848904713677</v>
       </c>
       <c r="C8">
-        <v>0.1638891271255147</v>
+        <v>0.1586593125766882</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.028031159212659</v>
+        <v>1.046199924636568</v>
       </c>
       <c r="F8">
-        <v>1.691636265992685</v>
+        <v>1.880644850137443</v>
       </c>
       <c r="G8">
-        <v>0.164128379117507</v>
+        <v>0.2052973184320805</v>
       </c>
       <c r="H8">
-        <v>0.1972724821063778</v>
+        <v>0.0001696619340776362</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.000972040810130359</v>
       </c>
       <c r="J8">
-        <v>0.01364192162012223</v>
+        <v>0.2237659718730711</v>
       </c>
       <c r="K8">
-        <v>1.098392262964239</v>
+        <v>0.1984371542279337</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.03722063144136811</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8688436679644269</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.709576838377501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.7585149475220661</v>
+      </c>
+      <c r="Q8">
+        <v>0.8520978458413992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.371592034625792</v>
+        <v>1.050837595618987</v>
       </c>
       <c r="C9">
-        <v>0.2018994151987101</v>
+        <v>0.1978733015353242</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.368816262603758</v>
+        <v>1.369792604060805</v>
       </c>
       <c r="F9">
-        <v>2.120309059409948</v>
+        <v>2.340748293900702</v>
       </c>
       <c r="G9">
-        <v>0.1547368262840507</v>
+        <v>0.2155776345917602</v>
       </c>
       <c r="H9">
-        <v>0.1776272177382623</v>
+        <v>0.002615541587017045</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.002112572665783574</v>
       </c>
       <c r="J9">
-        <v>0.01239960551524177</v>
+        <v>0.2196992700872755</v>
       </c>
       <c r="K9">
-        <v>1.452965186472568</v>
+        <v>0.1880676255874434</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.04528819152557517</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.150740485984215</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.6493785873577025</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.7303727397158468</v>
+      </c>
+      <c r="Q9">
+        <v>0.8659338428830381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.625662439713437</v>
+        <v>1.23998625262692</v>
       </c>
       <c r="C10">
-        <v>0.2299673484243385</v>
+        <v>0.2268377214518722</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.626933392753514</v>
+        <v>1.56173656115233</v>
       </c>
       <c r="F10">
-        <v>2.456469148160849</v>
+        <v>2.631397727196855</v>
       </c>
       <c r="G10">
-        <v>0.1525967439631373</v>
+        <v>0.2221632191707528</v>
       </c>
       <c r="H10">
-        <v>0.1659766290089593</v>
+        <v>0.005882938997297416</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.003665398477404658</v>
       </c>
       <c r="J10">
-        <v>0.01180440192679555</v>
+        <v>0.2165168464241347</v>
       </c>
       <c r="K10">
-        <v>1.714140122665697</v>
+        <v>0.1803268460683842</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.04924205240342872</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.353882327603401</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.6210326502519763</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.7155823267979571</v>
+      </c>
+      <c r="Q10">
+        <v>0.8736074178546147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.74164150604679</v>
+        <v>1.302879985426358</v>
       </c>
       <c r="C11">
-        <v>0.2427835185135052</v>
+        <v>0.2319670109633591</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.746562483605231</v>
+        <v>1.257755140841553</v>
       </c>
       <c r="F11">
-        <v>2.615083417582241</v>
+        <v>2.325558176004776</v>
       </c>
       <c r="G11">
-        <v>0.1528190112766268</v>
+        <v>0.2056561597480098</v>
       </c>
       <c r="H11">
-        <v>0.1613501935071255</v>
+        <v>0.02377880093098739</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.00463277424544728</v>
       </c>
       <c r="J11">
-        <v>0.01161287950617762</v>
+        <v>0.2056539648535107</v>
       </c>
       <c r="K11">
-        <v>1.833273726037646</v>
+        <v>0.1687973861706187</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.04117350404206221</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.414766175516519</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6120757033612136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.7314015818547546</v>
+      </c>
+      <c r="Q11">
+        <v>0.8159821190748318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.785633122513616</v>
+        <v>1.319131577551559</v>
       </c>
       <c r="C12">
-        <v>0.2476450158627159</v>
+        <v>0.2283695061029789</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.792228649136391</v>
+        <v>0.9904523705512531</v>
       </c>
       <c r="F12">
-        <v>2.67606371460451</v>
+        <v>2.025598893242062</v>
       </c>
       <c r="G12">
-        <v>0.1530897858156948</v>
+        <v>0.1915679916106328</v>
       </c>
       <c r="H12">
-        <v>0.1597014215113646</v>
+        <v>0.06161142355831828</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.004723968917865307</v>
       </c>
       <c r="J12">
-        <v>0.01155268771591267</v>
+        <v>0.1976777326426671</v>
       </c>
       <c r="K12">
-        <v>1.87844825421746</v>
+        <v>0.1616009900783908</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.04365125711839823</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.422599157807127</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.6092944549425852</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.7477267630865398</v>
+      </c>
+      <c r="Q12">
+        <v>0.7694382910296014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.776155245283064</v>
+        <v>1.297046004757192</v>
       </c>
       <c r="C13">
-        <v>0.2465976129808922</v>
+        <v>0.2196056848615058</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.782376576519923</v>
+        <v>0.7387112097446362</v>
       </c>
       <c r="F13">
-        <v>2.662888102641318</v>
+        <v>1.712413978201653</v>
       </c>
       <c r="G13">
-        <v>0.1530229253513227</v>
+        <v>0.1773559594258813</v>
       </c>
       <c r="H13">
-        <v>0.160051820503476</v>
+        <v>0.1163564398388672</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.004463676862993537</v>
       </c>
       <c r="J13">
-        <v>0.01156508679403245</v>
+        <v>0.1908246329883667</v>
       </c>
       <c r="K13">
-        <v>1.868716141927564</v>
+        <v>0.1564100219795446</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.05407940286654878</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.3901435081562</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.60986555135419</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.7660213503341211</v>
+      </c>
+      <c r="Q13">
+        <v>0.7249142831423256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.745259171203486</v>
+        <v>1.263651085095717</v>
       </c>
       <c r="C14">
-        <v>0.2431833021708769</v>
+        <v>0.2115171583928088</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.750311859259227</v>
+        <v>0.5753782855988305</v>
       </c>
       <c r="F14">
-        <v>2.62008134345399</v>
+        <v>1.491314391313594</v>
       </c>
       <c r="G14">
-        <v>0.1528374603936982</v>
+        <v>0.1672954357879846</v>
       </c>
       <c r="H14">
-        <v>0.1612124427583339</v>
+        <v>0.1649939565767227</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.004206929263848025</v>
       </c>
       <c r="J14">
-        <v>0.01160767466038948</v>
+        <v>0.1864802385780919</v>
       </c>
       <c r="K14">
-        <v>1.836988946387265</v>
+        <v>0.1535964635262381</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06617026193053732</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.349331634519615</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.6118343865106652</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.7799716159666872</v>
+      </c>
+      <c r="Q14">
+        <v>0.6944263356848239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.726344393965121</v>
+        <v>1.246558425504304</v>
       </c>
       <c r="C15">
-        <v>0.2410930617824363</v>
+        <v>0.2088824827747118</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.730720340724588</v>
+        <v>0.5354903870076555</v>
       </c>
       <c r="F15">
-        <v>2.593983376921301</v>
+        <v>1.432536117934859</v>
       </c>
       <c r="G15">
-        <v>0.1527486127628848</v>
+        <v>0.1645898271436579</v>
       </c>
       <c r="H15">
-        <v>0.1619369870501544</v>
+        <v>0.1772527491717426</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.004177355087167989</v>
       </c>
       <c r="J15">
-        <v>0.01163539630830535</v>
+        <v>0.1855525853744595</v>
       </c>
       <c r="K15">
-        <v>1.81756355149821</v>
+        <v>0.1531702731627824</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06948599888115581</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.330950802975792</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.6131212377174222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.7839939332338446</v>
+      </c>
+      <c r="Q15">
+        <v>0.6867168959951471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.618092276571105</v>
+        <v>1.168837374727957</v>
       </c>
       <c r="C16">
-        <v>0.2291308627973194</v>
+        <v>0.1990406876900579</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.61916377672604</v>
+        <v>0.5124740315066916</v>
       </c>
       <c r="F16">
-        <v>2.446226063702355</v>
+        <v>1.37874624430134</v>
       </c>
       <c r="G16">
-        <v>0.1526075090879075</v>
+        <v>0.1641880494164525</v>
       </c>
       <c r="H16">
-        <v>0.1662930587686873</v>
+        <v>0.1635569532532344</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.00365957201293643</v>
       </c>
       <c r="J16">
-        <v>0.01181859145512476</v>
+        <v>0.1879657137591266</v>
       </c>
       <c r="K16">
-        <v>1.706362202238353</v>
+        <v>0.1570446974948165</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.0654114410297808</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.250869477641317</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.621700959831287</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.7853745589962742</v>
+      </c>
+      <c r="Q16">
+        <v>0.690766837708594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.551796269209262</v>
+        <v>1.126913029682612</v>
       </c>
       <c r="C17">
-        <v>0.2218056732414055</v>
+        <v>0.1958165688428863</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.551325881832071</v>
+        <v>0.5775453907540395</v>
       </c>
       <c r="F17">
-        <v>2.357106867137674</v>
+        <v>1.451988241691609</v>
       </c>
       <c r="G17">
-        <v>0.152837312805147</v>
+        <v>0.1692023585547489</v>
       </c>
       <c r="H17">
-        <v>0.1691422101264664</v>
+        <v>0.1253817272781106</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.003426754104842722</v>
       </c>
       <c r="J17">
-        <v>0.01195191590366029</v>
+        <v>0.1921442687073096</v>
       </c>
       <c r="K17">
-        <v>1.638236756384288</v>
+        <v>0.1615237606050108</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.05503970007529801</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.211140091270778</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.628003417583443</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.7793118909098169</v>
+      </c>
+      <c r="Q17">
+        <v>0.7100636693094629</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.513701338889831</v>
+        <v>1.112658975472812</v>
       </c>
       <c r="C18">
-        <v>0.2175968378812314</v>
+        <v>0.1970266453528779</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.512512274014256</v>
+        <v>0.7413884207548165</v>
       </c>
       <c r="F18">
-        <v>2.306377402563143</v>
+        <v>1.653458335957211</v>
       </c>
       <c r="G18">
-        <v>0.1530811061311326</v>
+        <v>0.1800401574733996</v>
       </c>
       <c r="H18">
-        <v>0.1708439530815511</v>
+        <v>0.0726613696416365</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.003129635583294821</v>
       </c>
       <c r="J18">
-        <v>0.01203599847612402</v>
+        <v>0.1985687184502254</v>
       </c>
       <c r="K18">
-        <v>1.599082332187834</v>
+        <v>0.167431936357664</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.04277968423918566</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.201317287493879</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.6319962283126443</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.765671129222369</v>
+      </c>
+      <c r="Q18">
+        <v>0.7464620473331252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.50080892454497</v>
+        <v>1.117623141018782</v>
       </c>
       <c r="C19">
-        <v>0.2161725170461466</v>
+        <v>0.203828283981963</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.499404482645787</v>
+        <v>0.9996989898792918</v>
       </c>
       <c r="F19">
-        <v>2.289289384872333</v>
+        <v>1.958437945085194</v>
       </c>
       <c r="G19">
-        <v>0.153182391359131</v>
+        <v>0.1939215742365477</v>
       </c>
       <c r="H19">
-        <v>0.1714307670349342</v>
+        <v>0.02813908484856853</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.003307589447634207</v>
       </c>
       <c r="J19">
-        <v>0.01206571055913841</v>
+        <v>0.2057877548648008</v>
       </c>
       <c r="K19">
-        <v>1.585829962154918</v>
+        <v>0.1733662549322244</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.03697613078647422</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.21632530431765</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.6334099981199586</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.7493544398100411</v>
+      </c>
+      <c r="Q19">
+        <v>0.7910234263790983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.5588496798064</v>
+        <v>1.183762519752918</v>
       </c>
       <c r="C20">
-        <v>0.2225849849859713</v>
+        <v>0.2225968862209697</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.558525800411715</v>
+        <v>1.512133337367089</v>
       </c>
       <c r="F20">
-        <v>2.366538271147945</v>
+        <v>2.548750358040607</v>
       </c>
       <c r="G20">
-        <v>0.1528011952023718</v>
+        <v>0.2180105772694958</v>
       </c>
       <c r="H20">
-        <v>0.1688323499695201</v>
+        <v>0.004884477783619001</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.003922776364531977</v>
       </c>
       <c r="J20">
-        <v>0.0119369510684546</v>
+        <v>0.2160796898474757</v>
       </c>
       <c r="K20">
-        <v>1.645485667858793</v>
+        <v>0.1805958229446052</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.04794849871349349</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.300645924873152</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.6272941332181574</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.7217986568336556</v>
+      </c>
+      <c r="Q20">
+        <v>0.8637897750095789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.754331992532371</v>
+        <v>1.333072990778675</v>
       </c>
       <c r="C21">
-        <v>0.2441859311889658</v>
+        <v>0.246167246771094</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.759719731651728</v>
+        <v>1.733659628074662</v>
       </c>
       <c r="F21">
-        <v>2.632629029187314</v>
+        <v>2.854913785622699</v>
       </c>
       <c r="G21">
-        <v>0.15288674933538</v>
+        <v>0.2274968655346825</v>
       </c>
       <c r="H21">
-        <v>0.1608686875304954</v>
+        <v>0.008164438332402546</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.005232034306598798</v>
       </c>
       <c r="J21">
-        <v>0.01159482298316306</v>
+        <v>0.2158785821983784</v>
       </c>
       <c r="K21">
-        <v>1.846306208385329</v>
+        <v>0.1767291053010673</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.05412116359645225</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.461954103413518</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.6112391522589178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.707708333628517</v>
+      </c>
+      <c r="Q21">
+        <v>0.8837696793679299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.882523630100252</v>
+        <v>1.431970342658531</v>
       </c>
       <c r="C22">
-        <v>0.2583524727377409</v>
+        <v>0.2597206452320222</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.893365763508669</v>
+        <v>1.853369099283256</v>
       </c>
       <c r="F22">
-        <v>2.81192875218855</v>
+        <v>3.031616695969461</v>
       </c>
       <c r="G22">
-        <v>0.1540379489056747</v>
+        <v>0.2338654985497399</v>
       </c>
       <c r="H22">
-        <v>0.156268535802738</v>
+        <v>0.01060804424935978</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.005930518873069168</v>
       </c>
       <c r="J22">
-        <v>0.01144360342060935</v>
+        <v>0.2159087947945508</v>
       </c>
       <c r="K22">
-        <v>1.977918578370208</v>
+        <v>0.1746549727663371</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.05724574386677084</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.565475666815956</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.604328040756684</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.6992399458805352</v>
+      </c>
+      <c r="Q22">
+        <v>0.8975165920231092</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.814060409738715</v>
+        <v>1.381724242307484</v>
       </c>
       <c r="C23">
-        <v>0.2507865362562143</v>
+        <v>0.2511470722709106</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.82182238719615</v>
+        <v>1.788324210783429</v>
       </c>
       <c r="F23">
-        <v>2.715704908075253</v>
+        <v>2.938632203465772</v>
       </c>
       <c r="G23">
-        <v>0.1533181842839895</v>
+        <v>0.231270570761005</v>
       </c>
       <c r="H23">
-        <v>0.1586661957163358</v>
+        <v>0.009272089210369719</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.005270670727070659</v>
       </c>
       <c r="J23">
-        <v>0.01151735899513717</v>
+        <v>0.2163067693074154</v>
       </c>
       <c r="K23">
-        <v>1.907636053348881</v>
+        <v>0.176363779525941</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.05563999806848763</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.510138324225977</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.6076733906224234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.7027318414695003</v>
+      </c>
+      <c r="Q23">
+        <v>0.8927523230481711</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.555660773183746</v>
+        <v>1.186886070788375</v>
       </c>
       <c r="C24">
-        <v>0.2222326504210201</v>
+        <v>0.2211052037643952</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.555270137345403</v>
+        <v>1.54477225380505</v>
       </c>
       <c r="F24">
-        <v>2.362272763520465</v>
+        <v>2.587057400830432</v>
       </c>
       <c r="G24">
-        <v>0.1528171772194398</v>
+        <v>0.2208771957226006</v>
       </c>
       <c r="H24">
-        <v>0.1689722397202971</v>
+        <v>0.00494615774362317</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.003476590817316882</v>
       </c>
       <c r="J24">
-        <v>0.01194369358986869</v>
+        <v>0.2175886727077128</v>
       </c>
       <c r="K24">
-        <v>1.642208399312693</v>
+        <v>0.182312093300915</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.04951708692918189</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.30071697741738</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.6276136532563328</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.7188489352458802</v>
+      </c>
+      <c r="Q24">
+        <v>0.8730275875194167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.278288955583577</v>
+        <v>0.9758344845520242</v>
       </c>
       <c r="C25">
-        <v>0.191596918245267</v>
+        <v>0.1891316860751715</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.275430086719879</v>
+        <v>1.283679614815483</v>
       </c>
       <c r="F25">
-        <v>2.000957913326488</v>
+        <v>2.213232697811819</v>
       </c>
       <c r="G25">
-        <v>0.1564935726005956</v>
+        <v>0.2112389348708774</v>
       </c>
       <c r="H25">
-        <v>0.1824753438678073</v>
+        <v>0.001689069338550064</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.002085880415486407</v>
       </c>
       <c r="J25">
-        <v>0.01268320926846123</v>
+        <v>0.2199455267558434</v>
       </c>
       <c r="K25">
-        <v>1.356980631928764</v>
+        <v>0.1897245734563189</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.04300571249260621</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.074699992721861</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6630316712568032</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.7387952032247682</v>
+      </c>
+      <c r="Q25">
+        <v>0.8571044856806083</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_49/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8255699994245447</v>
+        <v>0.8099994502869095</v>
       </c>
       <c r="C2">
-        <v>0.16274293655826</v>
+        <v>0.165170164334981</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.08970070053735</v>
+        <v>1.098713854803393</v>
       </c>
       <c r="F2">
-        <v>1.945160772063005</v>
+        <v>1.933939850491498</v>
       </c>
       <c r="G2">
-        <v>0.2073917936442911</v>
+        <v>0.1828536433656467</v>
       </c>
       <c r="H2">
-        <v>0.0003426346057056051</v>
+        <v>0.000352185078807743</v>
       </c>
       <c r="I2">
-        <v>0.0008330706094246132</v>
+        <v>0.00108641218713057</v>
       </c>
       <c r="J2">
-        <v>0.2235313711298303</v>
+        <v>0.2531758066194172</v>
       </c>
       <c r="K2">
-        <v>0.197531465414853</v>
+        <v>0.1877544178659605</v>
       </c>
       <c r="L2">
-        <v>0.0383978960443212</v>
+        <v>0.114018648907912</v>
       </c>
       <c r="M2">
-        <v>0.907777686552663</v>
+        <v>0.03839476426231148</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.03783117144441128</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9082506822234961</v>
       </c>
       <c r="P2">
-        <v>0.7534383429340821</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.8561279210460384</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.7528694034479102</v>
+      </c>
+      <c r="S2">
+        <v>0.8301902173875533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7196648964464316</v>
+        <v>0.7098440097366847</v>
       </c>
       <c r="C3">
-        <v>0.1468187071509135</v>
+        <v>0.1459594817331293</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.9601191826776869</v>
+        <v>0.9670752125786493</v>
       </c>
       <c r="F3">
-        <v>1.763223528067826</v>
+        <v>1.754995479072221</v>
       </c>
       <c r="G3">
-        <v>0.2042514887061131</v>
+        <v>0.1811704550009381</v>
       </c>
       <c r="H3">
-        <v>6.010670526634954E-06</v>
+        <v>8.530347680224537E-06</v>
       </c>
       <c r="I3">
-        <v>0.0005317021481103801</v>
+        <v>0.000741864930523306</v>
       </c>
       <c r="J3">
-        <v>0.2257840915746812</v>
+        <v>0.254300520391034</v>
       </c>
       <c r="K3">
-        <v>0.2023802872607146</v>
+        <v>0.1929232690884142</v>
       </c>
       <c r="L3">
-        <v>0.03518380714682756</v>
+        <v>0.1187993567285339</v>
       </c>
       <c r="M3">
-        <v>0.7944965941917985</v>
+        <v>0.0389459365244198</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.03471834779521288</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.7950767617221004</v>
       </c>
       <c r="P3">
-        <v>0.7658179992694301</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.8539519664911097</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.7614197653347219</v>
+      </c>
+      <c r="S3">
+        <v>0.8311881517898172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6542357316432117</v>
+        <v>0.6478056675857147</v>
       </c>
       <c r="C4">
-        <v>0.1371511615024872</v>
+        <v>0.1343589771126403</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.8807038469239359</v>
+        <v>0.8864550824158925</v>
       </c>
       <c r="F4">
-        <v>1.652186778958139</v>
+        <v>1.645707217532646</v>
       </c>
       <c r="G4">
-        <v>0.202585124648742</v>
+        <v>0.1803947494915477</v>
       </c>
       <c r="H4">
-        <v>6.046021174066496E-05</v>
+        <v>5.144418111457938E-05</v>
       </c>
       <c r="I4">
-        <v>0.0004502365932412822</v>
+        <v>0.0006207811460221535</v>
       </c>
       <c r="J4">
-        <v>0.2273560181535856</v>
+        <v>0.2550686038488195</v>
       </c>
       <c r="K4">
-        <v>0.2055416904213843</v>
+        <v>0.1962335841178131</v>
       </c>
       <c r="L4">
-        <v>0.03319982138323141</v>
+        <v>0.1219344447703783</v>
       </c>
       <c r="M4">
-        <v>0.7247845463482321</v>
+        <v>0.03969084705232584</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.0327942488368258</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7254178431084881</v>
       </c>
       <c r="P4">
-        <v>0.7740203642125039</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.8535603433725498</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.7673158083239073</v>
+      </c>
+      <c r="S4">
+        <v>0.8325397838665793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6268573165283726</v>
+        <v>0.6217761566215927</v>
       </c>
       <c r="C5">
-        <v>0.1335555368403192</v>
+        <v>0.1300082236302131</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.8486415089284094</v>
+        <v>0.8539184846653569</v>
       </c>
       <c r="F5">
-        <v>1.606720491213892</v>
+        <v>1.600930830429888</v>
       </c>
       <c r="G5">
-        <v>0.201751558449736</v>
+        <v>0.1799285272200351</v>
       </c>
       <c r="H5">
-        <v>0.0001450263307414268</v>
+        <v>0.0001295908528691214</v>
       </c>
       <c r="I5">
-        <v>0.000505887515406922</v>
+        <v>0.0006696415835447667</v>
       </c>
       <c r="J5">
-        <v>0.2279277667542772</v>
+        <v>0.2552801311371979</v>
       </c>
       <c r="K5">
-        <v>0.2067079461048884</v>
+        <v>0.197453465370188</v>
       </c>
       <c r="L5">
-        <v>0.03237192028483626</v>
+        <v>0.1231614388644857</v>
       </c>
       <c r="M5">
-        <v>0.6963550930565532</v>
+        <v>0.0400727284297</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.03199031287511644</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.697008022355817</v>
       </c>
       <c r="P5">
-        <v>0.7777053736080717</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.8529273208069128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.7700808963695636</v>
+      </c>
+      <c r="S5">
+        <v>0.8325727605124627</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6215532923681906</v>
+        <v>0.616696154162554</v>
       </c>
       <c r="C6">
-        <v>0.1333511786182697</v>
+        <v>0.129694120518991</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.8436526540789373</v>
+        <v>0.8488542515198958</v>
       </c>
       <c r="F6">
-        <v>1.598728914319153</v>
+        <v>1.593051425610227</v>
       </c>
       <c r="G6">
-        <v>0.2013514375160668</v>
+        <v>0.1795965186177284</v>
       </c>
       <c r="H6">
-        <v>0.0001629186695857321</v>
+        <v>0.0001463028000443511</v>
       </c>
       <c r="I6">
-        <v>0.0006023517313540339</v>
+        <v>0.0007815384845857309</v>
       </c>
       <c r="J6">
-        <v>0.2278849406642891</v>
+        <v>0.2551692211455148</v>
       </c>
       <c r="K6">
-        <v>0.206700498657872</v>
+        <v>0.1974600982952648</v>
       </c>
       <c r="L6">
-        <v>0.03221487246505816</v>
+        <v>0.1232458426473961</v>
       </c>
       <c r="M6">
-        <v>0.6916578029899796</v>
+        <v>0.04011312918650978</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.03183735715245284</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.6923145335925653</v>
       </c>
       <c r="P6">
-        <v>0.7785664467252076</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.8519784766342724</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.7708004421475749</v>
+      </c>
+      <c r="S6">
+        <v>0.8317392372069179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6518067612110769</v>
+        <v>0.6450524331719976</v>
       </c>
       <c r="C7">
-        <v>0.1381733067090494</v>
+        <v>0.1351584314751904</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.8811843597040081</v>
+        <v>0.8875291028927705</v>
       </c>
       <c r="F7">
-        <v>1.650341975571777</v>
+        <v>1.643068146907197</v>
       </c>
       <c r="G7">
-        <v>0.201849171077356</v>
+        <v>0.1814383522524281</v>
       </c>
       <c r="H7">
-        <v>6.16481538826541E-05</v>
+        <v>5.274974166757929E-05</v>
       </c>
       <c r="I7">
-        <v>0.0006706517788357402</v>
+        <v>0.0008836778265708389</v>
       </c>
       <c r="J7">
-        <v>0.2269806939133403</v>
+        <v>0.2520745817679426</v>
       </c>
       <c r="K7">
-        <v>0.2050018884389608</v>
+        <v>0.1955261542034759</v>
       </c>
       <c r="L7">
-        <v>0.03313573348566834</v>
+        <v>0.1215182010988141</v>
       </c>
       <c r="M7">
-        <v>0.7244725659765976</v>
+        <v>0.03957370017621287</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.03269773211103022</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7244130530272201</v>
       </c>
       <c r="P7">
-        <v>0.7747374747978384</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.8512124609056286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.7683855056846696</v>
+      </c>
+      <c r="S7">
+        <v>0.8287786178715351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7863848904713677</v>
+        <v>0.77167230671472</v>
       </c>
       <c r="C8">
-        <v>0.1586593125766882</v>
+        <v>0.1591452756429845</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.046199924636568</v>
+        <v>1.056492738866183</v>
       </c>
       <c r="F8">
-        <v>1.880644850137443</v>
+        <v>1.867802843798884</v>
       </c>
       <c r="G8">
-        <v>0.2052973184320805</v>
+        <v>0.1871752617842191</v>
       </c>
       <c r="H8">
-        <v>0.0001696619340776362</v>
+        <v>0.0001770729356951328</v>
       </c>
       <c r="I8">
-        <v>0.000972040810130359</v>
+        <v>0.001263391542158487</v>
       </c>
       <c r="J8">
-        <v>0.2237659718730711</v>
+        <v>0.2446766035431267</v>
       </c>
       <c r="K8">
-        <v>0.1984371542279337</v>
+        <v>0.1882126635830907</v>
       </c>
       <c r="L8">
-        <v>0.03722063144136811</v>
+        <v>0.1149446738522357</v>
       </c>
       <c r="M8">
-        <v>0.8688436679644269</v>
+        <v>0.03818877563787471</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.03657963597814273</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.8670283044729388</v>
       </c>
       <c r="P8">
-        <v>0.7585149475220661</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.8520978458413992</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.7578582576163413</v>
+      </c>
+      <c r="S8">
+        <v>0.8225884310575537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.050837595618987</v>
+        <v>1.020624996674968</v>
       </c>
       <c r="C9">
-        <v>0.1978733015353242</v>
+        <v>0.2067366418468737</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.369792604060805</v>
+        <v>1.386116027139991</v>
       </c>
       <c r="F9">
-        <v>2.340748293900702</v>
+        <v>2.319156731862748</v>
       </c>
       <c r="G9">
-        <v>0.2155776345917602</v>
+        <v>0.1954104402268086</v>
       </c>
       <c r="H9">
-        <v>0.002615541587017045</v>
+        <v>0.002591098281149007</v>
       </c>
       <c r="I9">
-        <v>0.002112572665783574</v>
+        <v>0.002374310614887243</v>
       </c>
       <c r="J9">
-        <v>0.2196992700872755</v>
+        <v>0.240558389055245</v>
       </c>
       <c r="K9">
-        <v>0.1880676255874434</v>
+        <v>0.176611231288831</v>
       </c>
       <c r="L9">
-        <v>0.04528819152557517</v>
+        <v>0.104524738905484</v>
       </c>
       <c r="M9">
-        <v>1.150740485984215</v>
+        <v>0.03906297265697134</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.04434784328863728</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.147870160561638</v>
       </c>
       <c r="P9">
-        <v>0.7303727397158468</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.8659338428830381</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.7399338365701524</v>
+      </c>
+      <c r="S9">
+        <v>0.8260245887502862</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.23998625262692</v>
+        <v>1.195953256753882</v>
       </c>
       <c r="C10">
-        <v>0.2268377214518722</v>
+        <v>0.2404976926888338</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.56173656115233</v>
+        <v>1.585853572223854</v>
       </c>
       <c r="F10">
-        <v>2.631397727196855</v>
+        <v>2.598671868710014</v>
       </c>
       <c r="G10">
-        <v>0.2221632191707528</v>
+        <v>0.2113398137422138</v>
       </c>
       <c r="H10">
-        <v>0.005882938997297416</v>
+        <v>0.005782111125875566</v>
       </c>
       <c r="I10">
-        <v>0.003665398477404658</v>
+        <v>0.003830659582691354</v>
       </c>
       <c r="J10">
-        <v>0.2165168464241347</v>
+        <v>0.2236972547513929</v>
       </c>
       <c r="K10">
-        <v>0.1803268460683842</v>
+        <v>0.1669212478917181</v>
       </c>
       <c r="L10">
-        <v>0.04924205240342872</v>
+        <v>0.09717223272351738</v>
       </c>
       <c r="M10">
-        <v>1.353882327603401</v>
+        <v>0.04088556881815997</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.04799195887237495</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.345913908811553</v>
       </c>
       <c r="P10">
-        <v>0.7155823267979571</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.8736074178546147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.7353328010452458</v>
+      </c>
+      <c r="S10">
+        <v>0.8175155219437613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.302879985426358</v>
+        <v>1.252258661880433</v>
       </c>
       <c r="C11">
-        <v>0.2319670109633591</v>
+        <v>0.243030477900632</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.257755140841553</v>
+        <v>1.286178002940787</v>
       </c>
       <c r="F11">
-        <v>2.325558176004776</v>
+        <v>2.285219678531334</v>
       </c>
       <c r="G11">
-        <v>0.2056561597480098</v>
+        <v>0.2185221569542719</v>
       </c>
       <c r="H11">
-        <v>0.02377880093098739</v>
+        <v>0.0236505493247634</v>
       </c>
       <c r="I11">
-        <v>0.00463277424544728</v>
+        <v>0.004815807006361972</v>
       </c>
       <c r="J11">
-        <v>0.2056539648535107</v>
+        <v>0.1922595127490645</v>
       </c>
       <c r="K11">
-        <v>0.1687973861706187</v>
+        <v>0.1545831563530626</v>
       </c>
       <c r="L11">
-        <v>0.04117350404206221</v>
+        <v>0.09145893180666231</v>
       </c>
       <c r="M11">
-        <v>1.414766175516519</v>
+        <v>0.03839117780290557</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.04084439131011131</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.397166366759677</v>
       </c>
       <c r="P11">
-        <v>0.7314015818547546</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.8159821190748318</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.7611608918092045</v>
+      </c>
+      <c r="S11">
+        <v>0.746073790579814</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.319131577551559</v>
+        <v>1.267223649692625</v>
       </c>
       <c r="C12">
-        <v>0.2283695061029789</v>
+        <v>0.2370896354101859</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.9904523705512531</v>
+        <v>1.017883556104067</v>
       </c>
       <c r="F12">
-        <v>2.025598893242062</v>
+        <v>1.984789574814229</v>
       </c>
       <c r="G12">
-        <v>0.1915679916106328</v>
+        <v>0.2150362434869635</v>
       </c>
       <c r="H12">
-        <v>0.06161142355831828</v>
+        <v>0.06148502573807946</v>
       </c>
       <c r="I12">
-        <v>0.004723968917865307</v>
+        <v>0.004878763058496993</v>
       </c>
       <c r="J12">
-        <v>0.1976777326426671</v>
+        <v>0.1797718664081565</v>
       </c>
       <c r="K12">
-        <v>0.1616009900783908</v>
+        <v>0.1477649508306342</v>
       </c>
       <c r="L12">
-        <v>0.04365125711839823</v>
+        <v>0.0887982325391059</v>
       </c>
       <c r="M12">
-        <v>1.422599157807127</v>
+        <v>0.03632353758914242</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.04450061602481981</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.400545599462561</v>
       </c>
       <c r="P12">
-        <v>0.7477267630865398</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.7694382910296014</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.7824020461083876</v>
+      </c>
+      <c r="S12">
+        <v>0.6970040257586589</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.297046004757192</v>
+        <v>1.248925891542683</v>
       </c>
       <c r="C13">
-        <v>0.2196056848615058</v>
+        <v>0.2268102668987808</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7387112097446362</v>
+        <v>0.7608602828689754</v>
       </c>
       <c r="F13">
-        <v>1.712413978201653</v>
+        <v>1.677407373127295</v>
       </c>
       <c r="G13">
-        <v>0.1773559594258813</v>
+        <v>0.1972154466230407</v>
       </c>
       <c r="H13">
-        <v>0.1163564398388672</v>
+        <v>0.116253619998048</v>
       </c>
       <c r="I13">
-        <v>0.004463676862993537</v>
+        <v>0.00463995918201654</v>
       </c>
       <c r="J13">
-        <v>0.1908246329883667</v>
+        <v>0.178485698165872</v>
       </c>
       <c r="K13">
-        <v>0.1564100219795446</v>
+        <v>0.1441298667831923</v>
       </c>
       <c r="L13">
-        <v>0.05407940286654878</v>
+        <v>0.08776629542868797</v>
       </c>
       <c r="M13">
-        <v>1.3901435081562</v>
+        <v>0.03436645764234392</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.05596808597732306</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.369283070131104</v>
       </c>
       <c r="P13">
-        <v>0.7660213503341211</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.7249142831423256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.8000875693433116</v>
+      </c>
+      <c r="S13">
+        <v>0.6606980077153821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.263651085095717</v>
+        <v>1.220414780125282</v>
       </c>
       <c r="C14">
-        <v>0.2115171583928088</v>
+        <v>0.2180037644952648</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5753782855988305</v>
+        <v>0.592611225477512</v>
       </c>
       <c r="F14">
-        <v>1.491314391313594</v>
+        <v>1.462514786603975</v>
       </c>
       <c r="G14">
-        <v>0.1672954357879846</v>
+        <v>0.1791755863213709</v>
       </c>
       <c r="H14">
-        <v>0.1649939565767227</v>
+        <v>0.1649136792538712</v>
       </c>
       <c r="I14">
-        <v>0.004206929263848025</v>
+        <v>0.004433421270090498</v>
       </c>
       <c r="J14">
-        <v>0.1864802385780919</v>
+        <v>0.1815688789393306</v>
       </c>
       <c r="K14">
-        <v>0.1535964635262381</v>
+        <v>0.1428238410599807</v>
       </c>
       <c r="L14">
-        <v>0.06617026193053732</v>
+        <v>0.08763941223857419</v>
       </c>
       <c r="M14">
-        <v>1.349331634519615</v>
+        <v>0.03304274547401853</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.06852552827747616</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.331732076898561</v>
       </c>
       <c r="P14">
-        <v>0.7799716159666872</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.6944263356848239</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.8109390157650296</v>
+      </c>
+      <c r="S14">
+        <v>0.6400267972499734</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.246558425504304</v>
+        <v>1.205502154294066</v>
       </c>
       <c r="C15">
-        <v>0.2088824827747118</v>
+        <v>0.2153274038034425</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5354903870076555</v>
+        <v>0.5510212520193534</v>
       </c>
       <c r="F15">
-        <v>1.432536117934859</v>
+        <v>1.406164515764246</v>
       </c>
       <c r="G15">
-        <v>0.1645898271436579</v>
+        <v>0.1723330297593222</v>
       </c>
       <c r="H15">
-        <v>0.1772527491717426</v>
+        <v>0.1771815967789649</v>
       </c>
       <c r="I15">
-        <v>0.004177355087167989</v>
+        <v>0.004447762478446471</v>
       </c>
       <c r="J15">
-        <v>0.1855525853744595</v>
+        <v>0.1841547882061221</v>
       </c>
       <c r="K15">
-        <v>0.1531702731627824</v>
+        <v>0.1429581891754701</v>
       </c>
       <c r="L15">
-        <v>0.06948599888115581</v>
+        <v>0.08784455051651019</v>
       </c>
       <c r="M15">
-        <v>1.330950802975792</v>
+        <v>0.03269153626025201</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.07184143708603585</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.315177062272085</v>
       </c>
       <c r="P15">
-        <v>0.7839939332338446</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.6867168959951471</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.8130756322883244</v>
+      </c>
+      <c r="S15">
+        <v>0.6364718641289642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.168837374727957</v>
+        <v>1.136315431890779</v>
       </c>
       <c r="C16">
-        <v>0.1990406876900579</v>
+        <v>0.206155400901892</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5124740315066916</v>
+        <v>0.5232177259240842</v>
       </c>
       <c r="F16">
-        <v>1.37874624430134</v>
+        <v>1.360548997297357</v>
       </c>
       <c r="G16">
-        <v>0.1641880494164525</v>
+        <v>0.154273630836343</v>
       </c>
       <c r="H16">
-        <v>0.1635569532532344</v>
+        <v>0.1635200546825786</v>
       </c>
       <c r="I16">
-        <v>0.00365957201293643</v>
+        <v>0.004033149159320182</v>
       </c>
       <c r="J16">
-        <v>0.1879657137591266</v>
+        <v>0.2028801444768149</v>
       </c>
       <c r="K16">
-        <v>0.1570446974948165</v>
+        <v>0.1483509257631539</v>
       </c>
       <c r="L16">
-        <v>0.0654114410297808</v>
+        <v>0.09057665125090608</v>
       </c>
       <c r="M16">
-        <v>1.250869477641317</v>
+        <v>0.03286797211143622</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.06698570788586977</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.243588196805206</v>
       </c>
       <c r="P16">
-        <v>0.7853745589962742</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.690766837708594</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.8048121293139445</v>
+      </c>
+      <c r="S16">
+        <v>0.6553596089070339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.126913029682612</v>
+        <v>1.097728092070952</v>
       </c>
       <c r="C17">
-        <v>0.1958165688428863</v>
+        <v>0.2034441250792582</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5775453907540395</v>
+        <v>0.5871129106198154</v>
       </c>
       <c r="F17">
-        <v>1.451988241691609</v>
+        <v>1.436452536906998</v>
       </c>
       <c r="G17">
-        <v>0.1692023585547489</v>
+        <v>0.1520234889434917</v>
       </c>
       <c r="H17">
-        <v>0.1253817272781106</v>
+        <v>0.1253575263338291</v>
       </c>
       <c r="I17">
-        <v>0.003426754104842722</v>
+        <v>0.003849000416684234</v>
       </c>
       <c r="J17">
-        <v>0.1921442687073096</v>
+        <v>0.215120423320549</v>
       </c>
       <c r="K17">
-        <v>0.1615237606050108</v>
+        <v>0.1531185432202413</v>
       </c>
       <c r="L17">
-        <v>0.05503970007529801</v>
+        <v>0.0928978580263049</v>
       </c>
       <c r="M17">
-        <v>1.211140091270778</v>
+        <v>0.03359774354960265</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05607145361959098</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.207489134138171</v>
       </c>
       <c r="P17">
-        <v>0.7793118909098169</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.7100636693094629</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.7942589021244828</v>
+      </c>
+      <c r="S17">
+        <v>0.6797217264052051</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.112658975472812</v>
+        <v>1.083632777090344</v>
       </c>
       <c r="C18">
-        <v>0.1970266453528779</v>
+        <v>0.2056086530975136</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.7413884207548165</v>
+        <v>0.7517884519141802</v>
       </c>
       <c r="F18">
-        <v>1.653458335957211</v>
+        <v>1.637617988518812</v>
       </c>
       <c r="G18">
-        <v>0.1800401574733996</v>
+        <v>0.1591718903738055</v>
       </c>
       <c r="H18">
-        <v>0.0726613696416365</v>
+        <v>0.07263925777751012</v>
       </c>
       <c r="I18">
-        <v>0.003129635583294821</v>
+        <v>0.00351962728091415</v>
       </c>
       <c r="J18">
-        <v>0.1985687184502254</v>
+        <v>0.2249741344020322</v>
       </c>
       <c r="K18">
-        <v>0.167431936357664</v>
+        <v>0.158559724111015</v>
       </c>
       <c r="L18">
-        <v>0.04277968423918566</v>
+        <v>0.09534850904531567</v>
       </c>
       <c r="M18">
-        <v>1.201317287493879</v>
+        <v>0.035050690007143</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.04331432703087934</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.1992181268389</v>
       </c>
       <c r="P18">
-        <v>0.765671129222369</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.7464620473331252</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.7786351433093444</v>
+      </c>
+      <c r="S18">
+        <v>0.7160275661871083</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.117623141018782</v>
+        <v>1.08660841471206</v>
       </c>
       <c r="C19">
-        <v>0.203828283981963</v>
+        <v>0.2140349498831</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.9996989898792918</v>
+        <v>1.012374582843321</v>
       </c>
       <c r="F19">
-        <v>1.958437945085194</v>
+        <v>1.940291777440279</v>
       </c>
       <c r="G19">
-        <v>0.1939215742365477</v>
+        <v>0.1710363473523628</v>
       </c>
       <c r="H19">
-        <v>0.02813908484856853</v>
+        <v>0.02811056158015646</v>
       </c>
       <c r="I19">
-        <v>0.003307589447634207</v>
+        <v>0.003718079964492027</v>
       </c>
       <c r="J19">
-        <v>0.2057877548648008</v>
+        <v>0.2328617542374189</v>
       </c>
       <c r="K19">
-        <v>0.1733662549322244</v>
+        <v>0.1636045722852177</v>
       </c>
       <c r="L19">
-        <v>0.03697613078647422</v>
+        <v>0.09747978016461722</v>
       </c>
       <c r="M19">
-        <v>1.21632530431765</v>
+        <v>0.03675892505265921</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.03696944603267482</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.214674463162567</v>
       </c>
       <c r="P19">
-        <v>0.7493544398100411</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.7910234263790983</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.7619557352614521</v>
+      </c>
+      <c r="S19">
+        <v>0.7573915695582372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.183762519752918</v>
+        <v>1.144822926995658</v>
       </c>
       <c r="C20">
-        <v>0.2225968862209697</v>
+        <v>0.2361798352567064</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.512133337367089</v>
+        <v>1.532019391681487</v>
       </c>
       <c r="F20">
-        <v>2.548750358040607</v>
+        <v>2.521909612065372</v>
       </c>
       <c r="G20">
-        <v>0.2180105772694958</v>
+        <v>0.1981895842849397</v>
       </c>
       <c r="H20">
-        <v>0.004884477783619001</v>
+        <v>0.004813853244781896</v>
       </c>
       <c r="I20">
-        <v>0.003922776364531977</v>
+        <v>0.004290201838677454</v>
       </c>
       <c r="J20">
-        <v>0.2160796898474757</v>
+        <v>0.2350235201018904</v>
       </c>
       <c r="K20">
-        <v>0.1805958229446052</v>
+        <v>0.1684897312951268</v>
       </c>
       <c r="L20">
-        <v>0.04794849871349349</v>
+        <v>0.09867256789156009</v>
       </c>
       <c r="M20">
-        <v>1.300645924873152</v>
+        <v>0.03993137039553574</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.04690126971826558</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.296622693243137</v>
       </c>
       <c r="P20">
-        <v>0.7217986568336556</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.8637897750095789</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.7376156269306691</v>
+      </c>
+      <c r="S20">
+        <v>0.8173914695042725</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.333072990778675</v>
+        <v>1.27577204791146</v>
       </c>
       <c r="C21">
-        <v>0.246167246771094</v>
+        <v>0.2587194180534311</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.733659628074662</v>
+        <v>1.772282676927901</v>
       </c>
       <c r="F21">
-        <v>2.854913785622699</v>
+        <v>2.80293796593034</v>
       </c>
       <c r="G21">
-        <v>0.2274968655346825</v>
+        <v>0.2519351859232231</v>
       </c>
       <c r="H21">
-        <v>0.008164438332402546</v>
+        <v>0.007973944101206054</v>
       </c>
       <c r="I21">
-        <v>0.005232034306598798</v>
+        <v>0.005401841516625261</v>
       </c>
       <c r="J21">
-        <v>0.2158785821983784</v>
+        <v>0.1894623083374967</v>
       </c>
       <c r="K21">
-        <v>0.1767291053010673</v>
+        <v>0.1596302224285804</v>
       </c>
       <c r="L21">
-        <v>0.05412116359645225</v>
+        <v>0.0929782429560797</v>
       </c>
       <c r="M21">
-        <v>1.461954103413518</v>
+        <v>0.04106200522394765</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.05200762847266205</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.440193919080798</v>
       </c>
       <c r="P21">
-        <v>0.707708333628517</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.8837696793679299</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.7395556775420431</v>
+      </c>
+      <c r="S21">
+        <v>0.7970375681009045</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.431970342658531</v>
+        <v>1.361970383671149</v>
       </c>
       <c r="C22">
-        <v>0.2597206452320222</v>
+        <v>0.2709965654242268</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.853369099283256</v>
+        <v>1.905344409402076</v>
       </c>
       <c r="F22">
-        <v>3.031616695969461</v>
+        <v>2.961786491792509</v>
       </c>
       <c r="G22">
-        <v>0.2338654985497399</v>
+        <v>0.2943984772345871</v>
       </c>
       <c r="H22">
-        <v>0.01060804424935978</v>
+        <v>0.01032059948873076</v>
       </c>
       <c r="I22">
-        <v>0.005930518873069168</v>
+        <v>0.005873760760868763</v>
       </c>
       <c r="J22">
-        <v>0.2159087947945508</v>
+        <v>0.167807218264338</v>
       </c>
       <c r="K22">
-        <v>0.1746549727663371</v>
+        <v>0.1540121000453691</v>
       </c>
       <c r="L22">
-        <v>0.05724574386677084</v>
+        <v>0.0895853439054104</v>
       </c>
       <c r="M22">
-        <v>1.565475666815956</v>
+        <v>0.04202973377743824</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.05441523513914426</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.530737149434657</v>
       </c>
       <c r="P22">
-        <v>0.6992399458805352</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.8975165920231092</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.7426198413830534</v>
+      </c>
+      <c r="S22">
+        <v>0.7821697662410969</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.381724242307484</v>
+        <v>1.319444815626355</v>
       </c>
       <c r="C23">
-        <v>0.2511470722709106</v>
+        <v>0.2637450374530061</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.788324210783429</v>
+        <v>1.83142809373426</v>
       </c>
       <c r="F23">
-        <v>2.938632203465772</v>
+        <v>2.880554495285793</v>
       </c>
       <c r="G23">
-        <v>0.231270570761005</v>
+        <v>0.2665354037826759</v>
       </c>
       <c r="H23">
-        <v>0.009272089210369719</v>
+        <v>0.009042839637961597</v>
       </c>
       <c r="I23">
-        <v>0.005270670727070659</v>
+        <v>0.005281379976978862</v>
       </c>
       <c r="J23">
-        <v>0.2163067693074154</v>
+        <v>0.1817672104558419</v>
       </c>
       <c r="K23">
-        <v>0.176363779525941</v>
+        <v>0.1579579005879861</v>
       </c>
       <c r="L23">
-        <v>0.05563999806848763</v>
+        <v>0.09166261115862095</v>
       </c>
       <c r="M23">
-        <v>1.510138324225977</v>
+        <v>0.04193259462055998</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.05327995929199325</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.484277341371325</v>
       </c>
       <c r="P23">
-        <v>0.7027318414695003</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.8927523230481711</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.7385786297691013</v>
+      </c>
+      <c r="S23">
+        <v>0.79614782960887</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.186886070788375</v>
+        <v>1.147807729766839</v>
       </c>
       <c r="C24">
-        <v>0.2211052037643952</v>
+        <v>0.2347168074635988</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.54477225380505</v>
+        <v>1.564824857813946</v>
       </c>
       <c r="F24">
-        <v>2.587057400830432</v>
+        <v>2.560065270783198</v>
       </c>
       <c r="G24">
-        <v>0.2208771957226006</v>
+        <v>0.2005721946619659</v>
       </c>
       <c r="H24">
-        <v>0.00494615774362317</v>
+        <v>0.004874219067655283</v>
       </c>
       <c r="I24">
-        <v>0.003476590817316882</v>
+        <v>0.003744056874871227</v>
       </c>
       <c r="J24">
-        <v>0.2175886727077128</v>
+        <v>0.236857877697723</v>
       </c>
       <c r="K24">
-        <v>0.182312093300915</v>
+        <v>0.1700351878730277</v>
       </c>
       <c r="L24">
-        <v>0.04951708692918189</v>
+        <v>0.09929381488508682</v>
       </c>
       <c r="M24">
-        <v>1.30071697741738</v>
+        <v>0.0404763879399912</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.04839417175784355</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.296841403438862</v>
       </c>
       <c r="P24">
-        <v>0.7188489352458802</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.8730275875194167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.7343338986727801</v>
+      </c>
+      <c r="S24">
+        <v>0.8263040611593624</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9758344845520242</v>
+        <v>0.9504941701765688</v>
       </c>
       <c r="C25">
-        <v>0.1891316860751715</v>
+        <v>0.1961582894265632</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.283679614815483</v>
+        <v>1.2974745565772</v>
       </c>
       <c r="F25">
-        <v>2.213232697811819</v>
+        <v>2.195247240880576</v>
       </c>
       <c r="G25">
-        <v>0.2112389348708774</v>
+        <v>0.1891069098819642</v>
       </c>
       <c r="H25">
-        <v>0.001689069338550064</v>
+        <v>0.001682410779343391</v>
       </c>
       <c r="I25">
-        <v>0.002085880415486407</v>
+        <v>0.00245637464727988</v>
       </c>
       <c r="J25">
-        <v>0.2199455267558434</v>
+        <v>0.2444164354981382</v>
       </c>
       <c r="K25">
-        <v>0.1897245734563189</v>
+        <v>0.1789699397897291</v>
       </c>
       <c r="L25">
-        <v>0.04300571249260621</v>
+        <v>0.1068885540491102</v>
       </c>
       <c r="M25">
-        <v>1.074699992721861</v>
+        <v>0.03826347915841666</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.04219932546740068</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.073149408197139</v>
       </c>
       <c r="P25">
-        <v>0.7387952032247682</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.8571044856806083</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7451308461588226</v>
+      </c>
+      <c r="S25">
+        <v>0.8223640938550574</v>
       </c>
     </row>
   </sheetData>
